--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -693,6 +693,207 @@
   </si>
   <si>
     <t>Substance.Substance</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/v2/SubstanceDefinition</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
   </si>
   <si>
     <t>Ingredient.substance.strength</t>
@@ -1156,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL47"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1192,7 +1393,7 @@
     <col min="25" max="25" width="64.08203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="64.1953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1202,7 +1403,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="51.97265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4228,7 +4429,7 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4237,16 +4438,16 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4297,44 +4498,44 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4346,15 +4547,17 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4391,31 +4594,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4433,14 +4636,14 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4449,20 +4652,18 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>73</v>
@@ -4511,19 +4712,19 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4532,48 +4733,44 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4621,19 +4818,19 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -4642,23 +4839,23 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -4667,18 +4864,20 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -4715,45 +4914,45 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4764,7 +4963,7 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -4776,7 +4975,7 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>230</v>
@@ -4784,8 +4983,12 @@
       <c r="L34" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="M34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -4833,13 +5036,13 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4848,18 +5051,18 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>73</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4879,16 +5082,16 @@
         <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4939,7 +5142,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -4951,32 +5154,32 @@
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -4985,18 +5188,20 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -5033,45 +5238,45 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5094,16 +5299,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5112,7 +5321,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5151,7 +5360,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5166,18 +5375,18 @@
         <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5203,12 +5412,14 @@
         <v>182</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -5257,7 +5468,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5272,18 +5483,18 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5294,7 +5505,7 @@
         <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
@@ -5306,16 +5517,18 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
       </c>
@@ -5339,13 +5552,13 @@
         <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
@@ -5363,13 +5576,13 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
@@ -5378,18 +5591,18 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5400,7 +5613,7 @@
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5412,16 +5625,18 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
       </c>
@@ -5469,13 +5684,13 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
@@ -5484,18 +5699,18 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5515,19 +5730,23 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
       </c>
@@ -5575,7 +5794,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5587,7 +5806,7 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -5596,23 +5815,23 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>142</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5621,21 +5840,23 @@
         <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -5683,19 +5904,19 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
@@ -5704,48 +5925,44 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>142</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
       </c>
@@ -5793,19 +6010,19 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>73</v>
@@ -5819,7 +6036,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5830,7 +6047,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -5842,13 +6059,13 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5875,13 +6092,13 @@
         <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>73</v>
@@ -5899,13 +6116,13 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -5914,7 +6131,7 @@
         <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
@@ -5925,7 +6142,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5933,7 +6150,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>81</v>
@@ -5945,16 +6162,16 @@
         <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6005,10 +6222,10 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -6017,32 +6234,32 @@
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -6051,18 +6268,20 @@
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
@@ -6111,37 +6330,37 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6154,22 +6373,26 @@
         <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6193,13 +6416,13 @@
         <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
@@ -6217,7 +6440,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6229,15 +6452,1611 @@
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AJ48" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -485,7 +485,7 @@
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition|AdministrableProductDefinition|ManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="443">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -930,9 +930,213 @@
     <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. Unit of presentation refers to the quantity that the item occurs in e.g. a strength per tablet size, perhaps 'per 20mg' (the size of the tablet). It is not generally normalized as a unitary unit, which would be 'per mg').</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>Strength.Strength (Presentation)</t>
   </si>
   <si>
+    <t>presentationRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Strength per unit of presentation (10mg/vial or 10mg/0.5ml where 0.5ml is the size of the vial)</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>.numerator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].numerator.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].numerator.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].numerator.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].numerator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].numerator.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000110633/terms</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].numerator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.value</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.comparator</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000014/terms</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.code</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.textPresentation</t>
   </si>
   <si>
@@ -954,6 +1158,66 @@
     <t>Strength.Strength (Concentration)</t>
   </si>
   <si>
+    <t>concentrationRatio</t>
+  </si>
+  <si>
+    <t>Strength per unit of measurement (20mg/1ml)</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].numerator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].numerator.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].numerator.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].numerator.value</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].numerator.comparator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].numerator.system</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].numerator.code</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].denominator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].denominator.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].denominator.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].denominator.value</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].denominator.comparator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].denominator.system</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.concentration[x].denominator.code</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.textConcentration</t>
   </si>
   <si>
@@ -1005,7 +1269,7 @@
     <t>Ingredient.substance.strength.referenceStrength</t>
   </si>
   <si>
-    <t>Strength expressed in terms of a reference substance</t>
+    <t>Strenth expressed in terms of a reference substance; concentration and presentation strength or reference strength type not distinguished.</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance. For when the ingredient strength is additionally expressed as equivalent to the strength of some other closely related substance (e.g. salt vs. base). Reference strength represents the strength (quantitative composition) of the active moiety of the active substance. There are situations when the active substance and active moiety are different, therefore both a strength and a reference strength are needed.</t>
@@ -1024,9 +1288,6 @@
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.substance</t>
-  </si>
-  <si>
-    <t>Relevant reference substance</t>
   </si>
   <si>
     <t>Relevant reference substance.</t>
@@ -1042,10 +1303,70 @@
 RatioRangeQuantity</t>
   </si>
   <si>
+    <t>Strength expressed in terms of a reference substance</t>
+  </si>
+  <si>
     <t>Strength expressed in terms of a reference substance.</t>
   </si>
   <si>
     <t>Reference Strength.Reference Strength</t>
+  </si>
+  <si>
+    <t>strengthRatio</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].numerator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].numerator.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].numerator.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].numerator.value</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].numerator.comparator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].numerator.system</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].numerator.code</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].denominator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].denominator.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].denominator.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].denominator.value</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].denominator.comparator</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].denominator.system</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.strength[x].denominator.code</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.measurementPoint</t>
@@ -1357,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1366,8 +1687,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.1953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="80.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1403,7 +1724,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="51.97265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="68.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6044,7 +6365,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>75</v>
@@ -6534,16 +6855,14 @@
         <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>290</v>
@@ -6561,7 +6880,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6572,9 +6891,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6595,13 +6916,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6652,7 +6973,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6667,7 +6988,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>142</v>
+        <v>295</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
@@ -6678,7 +6999,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6698,16 +7019,16 @@
         <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>299</v>
+        <v>183</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6758,7 +7079,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6770,32 +7091,32 @@
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6804,18 +7125,20 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -6852,45 +7175,45 @@
         <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6913,13 +7236,13 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6985,18 +7308,18 @@
         <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7016,16 +7339,16 @@
         <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7076,7 +7399,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7088,25 +7411,25 @@
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>311</v>
+        <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7122,18 +7445,20 @@
         <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>313</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -7158,31 +7483,31 @@
         <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7194,21 +7519,21 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7219,7 +7544,7 @@
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -7231,16 +7556,20 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7288,13 +7617,13 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
@@ -7303,18 +7632,18 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7331,26 +7660,30 @@
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7370,13 +7703,11 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7394,7 +7725,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7406,7 +7737,7 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7415,23 +7746,23 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>142</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
@@ -7440,21 +7771,21 @@
         <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7502,19 +7833,19 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -7523,47 +7854,45 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>142</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>136</v>
+        <v>334</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7573,7 +7902,7 @@
         <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7612,19 +7941,19 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>193</v>
+        <v>336</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>73</v>
@@ -7633,12 +7962,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>124</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7661,16 +7990,20 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -7694,13 +8027,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -7718,7 +8051,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7733,18 +8066,18 @@
         <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>73</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7752,7 +8085,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>81</v>
@@ -7767,13 +8100,13 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7824,10 +8157,10 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -7839,18 +8172,18 @@
         <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>73</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7870,16 +8203,16 @@
         <v>73</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7930,7 +8263,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -7942,25 +8275,25 @@
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7976,18 +8309,20 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>313</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8012,31 +8347,31 @@
         <v>73</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8048,15 +8383,6145 @@
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AJ62" t="s" s="2">
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X64" s="2"/>
+      <c r="Y64" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AI66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AB69" s="2"/>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X77" s="2"/>
+      <c r="Y77" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X85" s="2"/>
+      <c r="Y85" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AB98" s="2"/>
+      <c r="AC98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X106" s="2"/>
+      <c r="Y106" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X114" s="2"/>
+      <c r="Y114" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1294,6 +1294,51 @@
   </si>
   <si>
     <t>Reference Strength.Reference Substance</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.coding</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.coding.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.coding.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.coding.system</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.coding.version</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.coding.code</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.coding.display</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.concept.text</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.referenceStrength.substance.reference</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.strength[x]</t>
@@ -1678,7 +1723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL119"/>
+  <dimension ref="A1:AL134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1687,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="80.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="83.2578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -12169,7 +12214,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>81</v>
@@ -12181,16 +12226,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>416</v>
+        <v>183</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>417</v>
+        <v>184</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12229,20 +12274,22 @@
         <v>73</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AB98" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>414</v>
+        <v>185</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -12251,34 +12298,32 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>418</v>
+        <v>73</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12287,18 +12332,20 @@
         <v>73</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>297</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>416</v>
+        <v>128</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12335,45 +12382,45 @@
         <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>414</v>
+        <v>188</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>418</v>
+        <v>73</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12393,16 +12440,16 @@
         <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12453,7 +12500,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12465,7 +12512,7 @@
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12474,23 +12521,23 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>73</v>
@@ -12502,17 +12549,15 @@
         <v>73</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>73</v>
@@ -12549,31 +12594,31 @@
         <v>73</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>73</v>
@@ -12587,18 +12632,18 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12607,18 +12652,20 @@
         <v>73</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>73</v>
@@ -12655,31 +12702,31 @@
         <v>73</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
@@ -12688,12 +12735,12 @@
         <v>73</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>306</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12704,7 +12751,7 @@
         <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>73</v>
@@ -12713,19 +12760,23 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>73</v>
       </c>
@@ -12773,19 +12824,19 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>73</v>
@@ -12794,23 +12845,23 @@
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>142</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>73</v>
@@ -12822,17 +12873,15 @@
         <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
@@ -12869,31 +12918,31 @@
         <v>73</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -12907,18 +12956,18 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>73</v>
@@ -12927,23 +12976,21 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>311</v>
+        <v>128</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -12979,31 +13026,31 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>315</v>
+        <v>188</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13012,12 +13059,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>316</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13034,35 +13081,35 @@
         <v>73</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N106" t="s" s="2">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P106" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>73</v>
@@ -13077,11 +13124,13 @@
         <v>73</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X106" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y106" t="s" s="2">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>73</v>
@@ -13099,7 +13148,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13120,12 +13169,12 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13151,15 +13200,15 @@
         <v>182</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
       </c>
@@ -13207,7 +13256,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13228,12 +13277,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>330</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13241,7 +13290,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>81</v>
@@ -13256,17 +13305,17 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13276,7 +13325,7 @@
         <v>73</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>73</v>
@@ -13315,7 +13364,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13324,7 +13373,7 @@
         <v>81</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>93</v>
@@ -13336,12 +13385,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>338</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13364,19 +13413,17 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13425,7 +13472,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13446,12 +13493,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>345</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13474,16 +13521,20 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13531,7 +13582,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13552,12 +13603,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>351</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13577,19 +13628,23 @@
         <v>73</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13637,7 +13692,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -13649,7 +13704,7 @@
         <v>73</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>73</v>
@@ -13658,23 +13713,23 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>142</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>73</v>
@@ -13683,20 +13738,18 @@
         <v>73</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>73</v>
@@ -13733,31 +13786,31 @@
         <v>73</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>73</v>
@@ -13766,12 +13819,12 @@
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13779,7 +13832,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>81</v>
@@ -13794,20 +13847,16 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>73</v>
       </c>
@@ -13843,22 +13892,20 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>315</v>
+        <v>429</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -13870,20 +13917,22 @@
         <v>93</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>73</v>
+        <v>433</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
         <v>73</v>
       </c>
@@ -13892,36 +13941,32 @@
         <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>318</v>
+        <v>431</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P114" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
         <v>73</v>
       </c>
@@ -13941,11 +13986,13 @@
         <v>73</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X114" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y114" t="s" s="2">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>73</v>
@@ -13963,10 +14010,10 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -13978,13 +14025,13 @@
         <v>93</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>73</v>
+        <v>433</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>324</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
@@ -14009,21 +14056,19 @@
         <v>73</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>326</v>
+        <v>183</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>327</v>
+        <v>184</v>
       </c>
       <c r="M115" s="2"/>
-      <c r="N115" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>73</v>
       </c>
@@ -14071,7 +14116,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>329</v>
+        <v>185</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14083,7 +14128,7 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>73</v>
@@ -14092,7 +14137,7 @@
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>330</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
@@ -14101,14 +14146,14 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14117,21 +14162,21 @@
         <v>73</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>73</v>
       </c>
@@ -14140,7 +14185,7 @@
         <v>73</v>
       </c>
       <c r="R116" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>73</v>
@@ -14167,31 +14212,31 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
@@ -14200,7 +14245,7 @@
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>338</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
@@ -14228,20 +14273,16 @@
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>101</v>
+        <v>302</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
       </c>
@@ -14289,7 +14330,7 @@
         <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -14310,7 +14351,7 @@
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118">
@@ -14335,16 +14376,16 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>395</v>
+        <v>183</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -14395,7 +14436,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>438</v>
+        <v>185</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14407,25 +14448,25 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>440</v>
+        <v>73</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14441,18 +14482,20 @@
         <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>399</v>
+        <v>128</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
@@ -14477,31 +14520,31 @@
         <v>73</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>401</v>
+        <v>73</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>402</v>
+        <v>73</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>441</v>
+        <v>188</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
@@ -14513,15 +14556,1635 @@
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI120" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AJ119" t="s" s="2">
+      <c r="AJ120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X121" s="2"/>
+      <c r="Y121" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL119" t="s" s="2">
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X129" s="2"/>
+      <c r="Y129" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,7 +505,7 @@
     <t>Purpose of the ingredient within the product, e.g. active, inactive</t>
   </si>
   <si>
-    <t>A classification of the ingredient identifying its purpose within the product, e.g. active, inactive.</t>
+    <t>EMA IG 5.1</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -520,6 +520,9 @@
     <t>example</t>
   </si>
   <si>
+    <t>A classification of the ingredient identifying its purpose within the product, e.g. active, inactive.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/ingredient-role</t>
   </si>
   <si>
@@ -658,7 +661,7 @@
     <t>Substance code from EMA SMS</t>
   </si>
   <si>
-    <t>The substance that comprises this ingredient.</t>
+    <t>EMA IG 5.5</t>
   </si>
   <si>
     <t>Ingredient.Substance</t>
@@ -902,7 +905,7 @@
     <t>The quantity of substance, per presentation, or per volume or mass, and type of quantity</t>
   </si>
   <si>
-    <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. The allowed repetitions do not represent different strengths, but are different representations - mathematically equivalent - of a single strength.</t>
+    <t>EMA IG 5.5.2</t>
   </si>
   <si>
     <t>Specified Substance.Strength</t>
@@ -1272,7 +1275,7 @@
     <t>Strenth expressed in terms of a reference substance; concentration and presentation strength or reference strength type not distinguished.</t>
   </si>
   <si>
-    <t>Strength expressed in terms of a reference substance. For when the ingredient strength is additionally expressed as equivalent to the strength of some other closely related substance (e.g. salt vs. base). Reference strength represents the strength (quantitative composition) of the active moiety of the active substance. There are situations when the active substance and active moiety are different, therefore both a strength and a reference strength are needed.</t>
+    <t>EMA IG 5.5.3</t>
   </si>
   <si>
     <t>Strength.Reference Strength</t>
@@ -3239,10 +3242,10 @@
         <v>160</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -3275,7 +3278,7 @@
         <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
@@ -3286,7 +3289,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3312,10 +3315,10 @@
         <v>156</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3345,10 +3348,10 @@
         <v>160</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>73</v>
@@ -3366,7 +3369,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3392,7 +3395,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3418,10 +3421,10 @@
         <v>156</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3472,7 +3475,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3498,7 +3501,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3521,13 +3524,13 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3535,7 +3538,7 @@
         <v>73</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>73</v>
@@ -3580,7 +3583,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3595,7 +3598,7 @@
         <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
@@ -3606,7 +3609,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3629,13 +3632,13 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3686,7 +3689,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3701,7 +3704,7 @@
         <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
@@ -3712,7 +3715,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3735,13 +3738,13 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3792,7 +3795,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3847,7 +3850,7 @@
         <v>128</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>130</v>
@@ -3900,7 +3903,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3926,11 +3929,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3952,10 +3955,10 @@
         <v>127</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>130</v>
@@ -4010,7 +4013,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -4036,7 +4039,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4062,10 +4065,10 @@
         <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4095,10 +4098,10 @@
         <v>148</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -4116,7 +4119,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -4131,7 +4134,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4142,7 +4145,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4165,13 +4168,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4222,7 +4225,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>81</v>
@@ -4237,7 +4240,7 @@
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -4248,7 +4251,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4271,13 +4274,13 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4328,7 +4331,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>81</v>
@@ -4343,7 +4346,7 @@
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
@@ -4354,7 +4357,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4377,13 +4380,13 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4434,7 +4437,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4460,7 +4463,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4489,7 +4492,7 @@
         <v>128</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>130</v>
@@ -4542,7 +4545,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4568,11 +4571,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4594,10 +4597,10 @@
         <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>130</v>
@@ -4652,7 +4655,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4678,7 +4681,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4701,13 +4704,13 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4737,10 +4740,10 @@
         <v>160</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4758,7 +4761,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>81</v>
@@ -4773,7 +4776,7 @@
         <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
@@ -4784,7 +4787,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4810,10 +4813,10 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4864,7 +4867,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4890,7 +4893,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4919,7 +4922,7 @@
         <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>130</v>
@@ -4960,19 +4963,19 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4998,7 +5001,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5024,10 +5027,10 @@
         <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5078,7 +5081,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5104,7 +5107,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5130,10 +5133,10 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5184,7 +5187,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -5210,7 +5213,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5239,7 +5242,7 @@
         <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>130</v>
@@ -5280,19 +5283,19 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5318,7 +5321,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5341,19 +5344,19 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5402,7 +5405,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5423,12 +5426,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5454,10 +5457,10 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5508,7 +5511,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5534,7 +5537,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5563,7 +5566,7 @@
         <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>130</v>
@@ -5604,19 +5607,19 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5642,7 +5645,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5668,16 +5671,16 @@
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
@@ -5687,7 +5690,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5726,7 +5729,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5747,12 +5750,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5775,16 +5778,16 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5834,7 +5837,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5855,12 +5858,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5886,14 +5889,14 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5942,7 +5945,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5963,12 +5966,12 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5991,17 +5994,17 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6050,7 +6053,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6071,12 +6074,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6099,19 +6102,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6160,7 +6163,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6181,12 +6184,12 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6209,19 +6212,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6270,7 +6273,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6291,12 +6294,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6319,13 +6322,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6376,7 +6379,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6402,7 +6405,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6425,13 +6428,13 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6482,7 +6485,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -6497,7 +6500,7 @@
         <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
@@ -6508,7 +6511,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6531,13 +6534,13 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6588,7 +6591,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6614,7 +6617,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6643,7 +6646,7 @@
         <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>130</v>
@@ -6696,7 +6699,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6722,11 +6725,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6748,10 +6751,10 @@
         <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>130</v>
@@ -6806,7 +6809,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6832,7 +6835,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6855,13 +6858,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6900,17 +6903,17 @@
         <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6925,7 +6928,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6936,10 +6939,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>73</v>
@@ -6961,13 +6964,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7018,7 +7021,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7033,7 +7036,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
@@ -7044,7 +7047,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7070,10 +7073,10 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7124,7 +7127,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7150,7 +7153,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7179,7 +7182,7 @@
         <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>130</v>
@@ -7220,19 +7223,19 @@
         <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7258,7 +7261,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7281,13 +7284,13 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7338,7 +7341,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7359,12 +7362,12 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7390,10 +7393,10 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7444,7 +7447,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7470,7 +7473,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7499,7 +7502,7 @@
         <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>130</v>
@@ -7540,19 +7543,19 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7578,7 +7581,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7601,19 +7604,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
@@ -7662,7 +7665,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7683,12 +7686,12 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7714,20 +7717,20 @@
         <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>73</v>
@@ -7752,7 +7755,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7770,7 +7773,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7791,12 +7794,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7819,17 +7822,17 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7878,7 +7881,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7899,12 +7902,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7930,14 +7933,14 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7947,7 +7950,7 @@
         <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7986,7 +7989,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7995,7 +7998,7 @@
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>93</v>
@@ -8007,12 +8010,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8038,16 +8041,16 @@
         <v>101</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8096,7 +8099,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8117,12 +8120,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8145,13 +8148,13 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8202,7 +8205,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8223,12 +8226,12 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8254,10 +8257,10 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8308,7 +8311,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8334,7 +8337,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8363,7 +8366,7 @@
         <v>128</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>130</v>
@@ -8404,19 +8407,19 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8442,7 +8445,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8465,19 +8468,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
@@ -8526,7 +8529,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8547,12 +8550,12 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8578,20 +8581,20 @@
         <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P64" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q64" t="s" s="2">
         <v>73</v>
@@ -8616,7 +8619,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8634,7 +8637,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8655,12 +8658,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8683,17 +8686,17 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8742,7 +8745,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8763,12 +8766,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8794,14 +8797,14 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8811,7 +8814,7 @@
         <v>73</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>73</v>
@@ -8850,7 +8853,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8859,7 +8862,7 @@
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>93</v>
@@ -8871,12 +8874,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8902,16 +8905,16 @@
         <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>73</v>
@@ -8960,7 +8963,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8981,12 +8984,12 @@
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9009,13 +9012,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9066,7 +9069,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9092,7 +9095,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9115,13 +9118,13 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9160,17 +9163,17 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9185,7 +9188,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
@@ -9196,10 +9199,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>73</v>
@@ -9221,13 +9224,13 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9278,7 +9281,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9293,7 +9296,7 @@
         <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
@@ -9304,7 +9307,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9330,10 +9333,10 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9384,7 +9387,7 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9410,7 +9413,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9439,7 +9442,7 @@
         <v>128</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>130</v>
@@ -9480,19 +9483,19 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9541,13 +9544,13 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9598,7 +9601,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9619,12 +9622,12 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9650,10 +9653,10 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9704,7 +9707,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -9730,7 +9733,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9759,7 +9762,7 @@
         <v>128</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>130</v>
@@ -9800,19 +9803,19 @@
         <v>73</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -9838,7 +9841,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9861,19 +9864,19 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -9922,7 +9925,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9943,12 +9946,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9974,20 +9977,20 @@
         <v>101</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P77" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q77" t="s" s="2">
         <v>73</v>
@@ -10012,7 +10015,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10030,7 +10033,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10051,12 +10054,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10079,17 +10082,17 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10138,7 +10141,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10159,12 +10162,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10190,14 +10193,14 @@
         <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10207,7 +10210,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -10246,7 +10249,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10255,7 +10258,7 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>93</v>
@@ -10267,12 +10270,12 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10298,16 +10301,16 @@
         <v>101</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>73</v>
@@ -10356,7 +10359,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10377,12 +10380,12 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10405,13 +10408,13 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10462,7 +10465,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10483,12 +10486,12 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10514,10 +10517,10 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10568,7 +10571,7 @@
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -10594,7 +10597,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10623,7 +10626,7 @@
         <v>128</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>130</v>
@@ -10664,19 +10667,19 @@
         <v>73</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -10702,7 +10705,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10725,19 +10728,19 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>73</v>
@@ -10786,7 +10789,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10807,12 +10810,12 @@
         <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10838,20 +10841,20 @@
         <v>101</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>73</v>
@@ -10876,7 +10879,7 @@
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10894,7 +10897,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10915,12 +10918,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10943,17 +10946,17 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11002,7 +11005,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11023,12 +11026,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11054,14 +11057,14 @@
         <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11071,7 +11074,7 @@
         <v>73</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>73</v>
@@ -11110,7 +11113,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11119,7 +11122,7 @@
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>93</v>
@@ -11131,12 +11134,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11162,16 +11165,16 @@
         <v>101</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -11220,7 +11223,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11241,12 +11244,12 @@
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11269,13 +11272,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11326,7 +11329,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11352,7 +11355,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11378,10 +11381,10 @@
         <v>156</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11432,7 +11435,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11458,7 +11461,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11481,13 +11484,13 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11538,7 +11541,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11553,7 +11556,7 @@
         <v>93</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>73</v>
@@ -11564,7 +11567,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11590,10 +11593,10 @@
         <v>156</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11623,10 +11626,10 @@
         <v>160</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
@@ -11644,7 +11647,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -11659,7 +11662,7 @@
         <v>93</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>73</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11693,13 +11696,13 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11750,7 +11753,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -11765,7 +11768,7 @@
         <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>73</v>
@@ -11776,7 +11779,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11799,13 +11802,13 @@
         <v>73</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11856,7 +11859,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -11882,7 +11885,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11911,7 +11914,7 @@
         <v>128</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>130</v>
@@ -11964,7 +11967,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -11990,11 +11993,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12016,10 +12019,10 @@
         <v>127</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>130</v>
@@ -12074,7 +12077,7 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -12100,7 +12103,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12123,13 +12126,13 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12159,10 +12162,10 @@
         <v>160</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>73</v>
@@ -12180,7 +12183,7 @@
         <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -12195,7 +12198,7 @@
         <v>93</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
@@ -12206,7 +12209,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12232,10 +12235,10 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12286,7 +12289,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12312,7 +12315,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12341,7 +12344,7 @@
         <v>128</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>130</v>
@@ -12382,19 +12385,19 @@
         <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -12420,7 +12423,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12446,10 +12449,10 @@
         <v>156</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12500,7 +12503,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12526,7 +12529,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12552,10 +12555,10 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12606,7 +12609,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12632,7 +12635,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12661,7 +12664,7 @@
         <v>128</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>130</v>
@@ -12702,19 +12705,19 @@
         <v>73</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -12740,7 +12743,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12763,19 +12766,19 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>73</v>
@@ -12824,7 +12827,7 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -12845,12 +12848,12 @@
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12876,10 +12879,10 @@
         <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12930,7 +12933,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12956,7 +12959,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12985,7 +12988,7 @@
         <v>128</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>130</v>
@@ -13026,19 +13029,19 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13064,7 +13067,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13090,16 +13093,16 @@
         <v>95</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
@@ -13109,7 +13112,7 @@
         <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>73</v>
@@ -13148,7 +13151,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13169,12 +13172,12 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13197,16 +13200,16 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13256,7 +13259,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13277,12 +13280,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13308,14 +13311,14 @@
         <v>101</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13364,7 +13367,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13385,12 +13388,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13413,17 +13416,17 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13472,7 +13475,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13493,12 +13496,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13521,19 +13524,19 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
@@ -13582,7 +13585,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13603,12 +13606,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13631,19 +13634,19 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
@@ -13692,7 +13695,7 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -13713,12 +13716,12 @@
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13741,13 +13744,13 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13798,7 +13801,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -13824,7 +13827,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13847,13 +13850,13 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13892,17 +13895,17 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>81</v>
@@ -13917,7 +13920,7 @@
         <v>93</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>73</v>
@@ -13928,10 +13931,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>73</v>
@@ -13953,13 +13956,13 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14010,7 +14013,7 @@
         <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>81</v>
@@ -14025,7 +14028,7 @@
         <v>93</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
@@ -14036,7 +14039,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14062,10 +14065,10 @@
         <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14116,7 +14119,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14142,7 +14145,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14171,7 +14174,7 @@
         <v>128</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>130</v>
@@ -14212,19 +14215,19 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
@@ -14250,7 +14253,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14273,13 +14276,13 @@
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14330,7 +14333,7 @@
         <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -14351,12 +14354,12 @@
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14382,10 +14385,10 @@
         <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -14436,7 +14439,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14462,7 +14465,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14491,7 +14494,7 @@
         <v>128</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>130</v>
@@ -14532,19 +14535,19 @@
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
@@ -14570,7 +14573,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14593,19 +14596,19 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14654,7 +14657,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14675,12 +14678,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14706,20 +14709,20 @@
         <v>101</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>73</v>
@@ -14744,7 +14747,7 @@
       </c>
       <c r="X121" s="2"/>
       <c r="Y121" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>73</v>
@@ -14762,7 +14765,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -14783,12 +14786,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14811,17 +14814,17 @@
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14870,7 +14873,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -14891,12 +14894,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14922,14 +14925,14 @@
         <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>73</v>
@@ -14939,7 +14942,7 @@
         <v>73</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>73</v>
@@ -14978,7 +14981,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -14987,7 +14990,7 @@
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>93</v>
@@ -14999,12 +15002,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15030,16 +15033,16 @@
         <v>101</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
@@ -15088,7 +15091,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15109,12 +15112,12 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15137,13 +15140,13 @@
         <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15194,7 +15197,7 @@
         <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -15215,12 +15218,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15246,10 +15249,10 @@
         <v>83</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15300,7 +15303,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15326,7 +15329,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15355,7 +15358,7 @@
         <v>128</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>130</v>
@@ -15396,19 +15399,19 @@
         <v>73</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
@@ -15434,7 +15437,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15457,19 +15460,19 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15518,7 +15521,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15539,12 +15542,12 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15570,20 +15573,20 @@
         <v>101</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>73</v>
@@ -15608,7 +15611,7 @@
       </c>
       <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -15626,7 +15629,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15647,12 +15650,12 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15675,17 +15678,17 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15734,7 +15737,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -15755,12 +15758,12 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15786,14 +15789,14 @@
         <v>95</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
@@ -15803,7 +15806,7 @@
         <v>73</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>73</v>
@@ -15842,7 +15845,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -15851,7 +15854,7 @@
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>93</v>
@@ -15863,12 +15866,12 @@
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15894,16 +15897,16 @@
         <v>101</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
@@ -15952,7 +15955,7 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -15973,12 +15976,12 @@
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16001,13 +16004,13 @@
         <v>82</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16058,7 +16061,7 @@
         <v>73</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16073,7 +16076,7 @@
         <v>93</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>73</v>
@@ -16084,7 +16087,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16110,10 +16113,10 @@
         <v>156</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16143,10 +16146,10 @@
         <v>160</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>73</v>
@@ -16164,7 +16167,7 @@
         <v>73</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -16179,7 +16182,7 @@
         <v>93</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/#/lists/100000072050/terms"/&gt;
+    &lt;system value="http://spor.ema.europa.eu/v1/lists/100000072050"/&gt;
     &lt;code value="100000072072"/&gt;
     &lt;display value="Active"/&gt;
   &lt;/coding&gt;
@@ -1060,7 +1060,7 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000110633/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000110633</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -1134,7 +1134,7 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000014/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.code</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1134,7 +1134,7 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
+    <t>Unit of measurement or unit of presentation</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.code</t>
@@ -8797,7 +8797,7 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>334</v>
@@ -8814,7 +8814,7 @@
         <v>73</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>360</v>
+        <v>73</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>73</v>
@@ -15789,7 +15789,7 @@
         <v>95</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>334</v>
@@ -15806,7 +15806,7 @@
         <v>73</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>360</v>
+        <v>73</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1131,13 +1131,13 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
   </si>
   <si>
     <t>Unit of measurement or unit of presentation</t>
-  </si>
-  <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.code</t>
@@ -8724,13 +8724,11 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -8774,7 +8772,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8800,7 +8798,7 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>334</v>
@@ -8832,11 +8830,13 @@
         <v>73</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>73</v>
@@ -15714,13 +15714,11 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X130" s="2"/>
       <c r="Y130" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>
@@ -15790,7 +15788,7 @@
         <v>95</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>334</v>
@@ -15822,11 +15820,13 @@
         <v>73</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X131" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y131" t="s" s="2">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLIngredient</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLIngredient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -274,7 +274,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -364,7 +364,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -387,17 +387,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -440,7 +436,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -462,6 +458,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>Ingredient.status</t>
   </si>
   <si>
@@ -480,13 +479,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
   </si>
   <si>
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -545,6 +544,15 @@
     <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
   </si>
   <si>
+    <t>Ingredient.group</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
+  </si>
+  <si>
     <t>Ingredient.allergenicIndicator</t>
   </si>
   <si>
@@ -577,10 +585,6 @@
     <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Ingredient.manufacturer.id</t>
   </si>
   <si>
@@ -635,7 +639,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-ballot</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
@@ -768,7 +772,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -920,7 +924,7 @@
   </si>
   <si>
     <t>Ratio
-RatioRange</t>
+RatioRangeCodeableConceptQuantity</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation</t>
@@ -1005,7 +1009,7 @@
     <t>Ingredient.substance.strength.presentation[x].numerator.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -1017,7 +1021,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1093,6 +1097,10 @@
     <t>Ingredient.substance.strength.presentation[x].denominator</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
     <t>Denominator value</t>
   </si>
   <si>
@@ -1117,10 +1125,13 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.comparator</t>
   </si>
   <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
@@ -1222,6 +1233,15 @@
     <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio.</t>
   </si>
   <si>
+    <t>Ingredient.substance.strength.basis</t>
+  </si>
+  <si>
+    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt)</t>
+  </si>
+  <si>
+    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.measurementPoint</t>
   </si>
   <si>
@@ -1328,6 +1348,10 @@
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.strength[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RatioRangeQuantity</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance</t>
@@ -1705,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL132"/>
+  <dimension ref="A1:AL134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1724,7 +1748,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1738,7 +1762,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2610,25 +2634,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2647,16 +2671,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2706,7 +2730,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2718,7 +2742,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2727,16 +2751,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2752,22 +2776,22 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2816,7 +2840,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2828,7 +2852,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2837,12 +2861,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2865,13 +2889,13 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2922,7 +2946,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2937,10 +2961,10 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3045,7 +3069,7 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -3151,7 +3175,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -3363,7 +3387,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>73</v>
@@ -3397,22 +3421,20 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P16" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3471,7 +3493,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
@@ -3482,7 +3504,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3493,7 +3515,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3505,20 +3527,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="Q17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3562,22 +3586,22 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
@@ -3588,7 +3612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3599,7 +3623,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3608,16 +3632,16 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3668,44 +3692,44 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3717,17 +3741,15 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3776,19 +3798,19 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3797,16 +3819,16 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3819,26 +3841,24 @@
         <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3898,7 +3918,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3907,44 +3927,48 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3968,13 +3992,13 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -3992,33 +4016,33 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4026,7 +4050,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
@@ -4041,13 +4065,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4074,13 +4098,13 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -4098,10 +4122,10 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4113,7 +4137,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4124,7 +4148,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4147,13 +4171,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4204,7 +4228,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>81</v>
@@ -4216,10 +4240,10 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -4230,7 +4254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4238,7 +4262,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
@@ -4250,16 +4274,16 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4310,10 +4334,10 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4322,32 +4346,32 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -4359,17 +4383,15 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4418,19 +4440,19 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4439,16 +4461,16 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4461,26 +4483,24 @@
         <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4528,7 +4548,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4540,7 +4560,7 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4549,44 +4569,48 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4610,13 +4634,13 @@
         <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4634,33 +4658,33 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4668,7 +4692,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>81</v>
@@ -4680,16 +4704,16 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4716,13 +4740,13 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4740,10 +4764,10 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4752,32 +4776,32 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4789,17 +4813,15 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
@@ -4836,31 +4858,31 @@
         <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4869,23 +4891,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4894,18 +4916,20 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4942,31 +4966,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4975,12 +4999,12 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5000,16 +5024,16 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5060,7 +5084,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5072,7 +5096,7 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5081,23 +5105,23 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5109,17 +5133,15 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5156,31 +5178,31 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5189,16 +5211,16 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5214,23 +5236,21 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5266,19 +5286,19 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5290,7 +5310,7 @@
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5299,12 +5319,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5315,7 +5335,7 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5324,19 +5344,23 @@
         <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5384,19 +5408,19 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5405,23 +5429,23 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5433,17 +5457,15 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5480,31 +5502,31 @@
         <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -5513,23 +5535,23 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5538,23 +5560,21 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5563,7 +5583,7 @@
         <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>73</v>
@@ -5590,31 +5610,31 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5623,12 +5643,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>244</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5651,18 +5671,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5710,7 +5732,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5731,12 +5753,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5759,18 +5781,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>73</v>
       </c>
@@ -5818,7 +5840,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5839,12 +5861,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5867,17 +5889,17 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5926,7 +5948,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5947,12 +5969,12 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5975,19 +5997,17 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6036,7 +6056,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6057,12 +6077,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6085,19 +6105,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6146,7 +6166,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6167,12 +6187,12 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6195,16 +6215,20 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6252,7 +6276,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6273,12 +6297,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>125</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6286,10 +6310,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -6301,13 +6325,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6358,33 +6382,33 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6392,10 +6416,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6404,16 +6428,16 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6464,44 +6488,44 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6513,17 +6537,15 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6572,19 +6594,19 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6593,16 +6615,16 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6615,26 +6637,24 @@
         <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6682,7 +6702,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6694,7 +6714,7 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -6703,44 +6723,48 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6776,47 +6800,47 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6837,13 +6861,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6882,19 +6906,17 @@
         <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6909,7 +6931,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6920,9 +6942,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6940,16 +6964,16 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7000,7 +7024,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7012,32 +7036,32 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -7049,17 +7073,15 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7096,31 +7118,31 @@
         <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7129,23 +7151,23 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -7154,18 +7176,20 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7202,31 +7226,31 @@
         <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -7235,12 +7259,12 @@
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7260,16 +7284,16 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7320,7 +7344,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7332,7 +7356,7 @@
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7341,23 +7365,23 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7369,17 +7393,15 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -7416,31 +7438,31 @@
         <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7449,23 +7471,23 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7474,23 +7496,21 @@
         <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7526,31 +7546,31 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -7559,12 +7579,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7581,30 +7601,30 @@
         <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7624,11 +7644,13 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -7646,7 +7668,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7667,12 +7689,12 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7689,28 +7711,30 @@
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7730,13 +7754,11 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7754,7 +7776,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7775,12 +7797,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7788,7 +7810,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>81</v>
@@ -7803,17 +7825,17 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7823,7 +7845,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7862,7 +7884,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7871,7 +7893,7 @@
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7883,12 +7905,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7896,7 +7918,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>81</v>
@@ -7911,19 +7933,17 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7933,7 +7953,7 @@
         <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7972,7 +7992,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7981,7 +8001,7 @@
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>93</v>
@@ -7993,12 +8013,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8021,16 +8041,20 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -8078,7 +8102,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8099,12 +8123,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8124,16 +8148,16 @@
         <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8184,7 +8208,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8196,7 +8220,7 @@
         <v>73</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>73</v>
@@ -8205,23 +8229,23 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -8233,17 +8257,15 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8280,31 +8302,31 @@
         <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>73</v>
@@ -8313,23 +8335,23 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8338,23 +8360,21 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8390,31 +8410,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8423,12 +8443,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8445,30 +8465,30 @@
         <v>73</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>73</v>
       </c>
@@ -8488,11 +8508,13 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
@@ -8510,7 +8532,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8531,12 +8553,12 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8547,34 +8569,36 @@
         <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8598,7 +8622,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8616,7 +8640,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8637,12 +8661,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8650,7 +8674,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>81</v>
@@ -8665,17 +8689,17 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8700,13 +8724,11 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -8724,7 +8746,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8733,7 +8755,7 @@
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8745,12 +8767,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8758,7 +8780,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>81</v>
@@ -8773,19 +8795,17 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8834,7 +8854,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8843,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>93</v>
@@ -8855,12 +8875,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8883,16 +8903,20 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>73</v>
       </c>
@@ -8940,7 +8964,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8955,18 +8979,18 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>73</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8989,13 +9013,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9034,17 +9058,19 @@
         <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB68" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9059,7 +9085,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
@@ -9070,11 +9096,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B69" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9095,13 +9119,13 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>367</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9140,19 +9164,17 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9167,7 +9189,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
@@ -9178,9 +9200,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9198,16 +9222,16 @@
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9258,7 +9282,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9270,32 +9294,32 @@
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -9307,17 +9331,15 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9354,31 +9376,31 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9387,23 +9409,23 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9412,18 +9434,20 @@
         <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -9460,31 +9484,31 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9493,12 +9517,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9518,16 +9542,16 @@
         <v>73</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9578,7 +9602,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9590,7 +9614,7 @@
         <v>73</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
@@ -9599,23 +9623,23 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9627,17 +9651,15 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -9674,31 +9696,31 @@
         <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -9707,23 +9729,23 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -9732,23 +9754,21 @@
         <v>73</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>73</v>
       </c>
@@ -9784,31 +9804,31 @@
         <v>73</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -9817,12 +9837,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9839,30 +9859,30 @@
         <v>73</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P76" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9882,11 +9902,13 @@
         <v>73</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X76" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y76" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>73</v>
@@ -9904,7 +9926,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9925,12 +9947,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9947,28 +9969,30 @@
         <v>73</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q77" t="s" s="2">
         <v>73</v>
       </c>
@@ -9988,13 +10012,11 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10012,7 +10034,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10033,12 +10055,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10046,7 +10068,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>81</v>
@@ -10061,17 +10083,17 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10081,7 +10103,7 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>73</v>
@@ -10120,7 +10142,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10129,7 +10151,7 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10141,12 +10163,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10154,7 +10176,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>81</v>
@@ -10169,19 +10191,17 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10191,7 +10211,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -10230,7 +10250,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10239,7 +10259,7 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>93</v>
@@ -10251,12 +10271,12 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10279,16 +10299,20 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>73</v>
       </c>
@@ -10336,7 +10360,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10357,12 +10381,12 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10382,16 +10406,16 @@
         <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10442,7 +10466,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10454,7 +10478,7 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>73</v>
@@ -10463,23 +10487,23 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -10491,17 +10515,15 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10538,31 +10560,31 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10571,23 +10593,23 @@
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -10596,23 +10618,21 @@
         <v>73</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10648,31 +10668,31 @@
         <v>73</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>73</v>
@@ -10681,12 +10701,12 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10703,30 +10723,30 @@
         <v>73</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N84" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P84" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>73</v>
       </c>
@@ -10746,11 +10766,13 @@
         <v>73</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X84" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y84" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>73</v>
@@ -10768,7 +10790,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10789,12 +10811,12 @@
         <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10805,34 +10827,36 @@
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>73</v>
       </c>
@@ -10852,13 +10876,11 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10876,7 +10898,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10897,12 +10919,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10910,7 +10932,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>81</v>
@@ -10925,17 +10947,17 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10945,7 +10967,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -10984,7 +11006,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -10993,7 +11015,7 @@
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11005,12 +11027,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11018,7 +11040,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>81</v>
@@ -11033,19 +11055,17 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11055,7 +11075,7 @@
         <v>73</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>73</v>
@@ -11094,7 +11114,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11103,7 +11123,7 @@
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>93</v>
@@ -11115,12 +11135,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11143,16 +11163,20 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
       </c>
@@ -11200,7 +11224,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11215,18 +11239,18 @@
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>73</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11249,13 +11273,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11306,7 +11330,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11321,7 +11345,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>73</v>
@@ -11343,7 +11367,7 @@
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>73</v>
@@ -11388,13 +11412,13 @@
         <v>73</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>73</v>
@@ -11418,7 +11442,7 @@
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>73</v>
@@ -11427,7 +11451,7 @@
         <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>398</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>73</v>
@@ -11438,7 +11462,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11449,7 +11473,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>73</v>
@@ -11461,13 +11485,13 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11518,22 +11542,22 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>73</v>
@@ -11544,7 +11568,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11555,7 +11579,7 @@
         <v>74</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>73</v>
@@ -11564,16 +11588,16 @@
         <v>73</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>182</v>
+        <v>401</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>183</v>
+        <v>402</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11600,13 +11624,13 @@
         <v>73</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
@@ -11624,37 +11648,37 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>184</v>
+        <v>400</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>73</v>
+        <v>405</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11670,20 +11694,18 @@
         <v>73</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>73</v>
@@ -11732,7 +11754,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>187</v>
+        <v>406</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -11744,57 +11766,53 @@
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>73</v>
+        <v>409</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>73</v>
       </c>
@@ -11842,19 +11860,19 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>73</v>
@@ -11863,23 +11881,23 @@
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>73</v>
@@ -11888,18 +11906,20 @@
         <v>73</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>73</v>
@@ -11924,13 +11944,13 @@
         <v>73</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>73</v>
@@ -11948,65 +11968,69 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>73</v>
       </c>
@@ -12054,19 +12078,19 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
@@ -12075,23 +12099,23 @@
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12100,20 +12124,18 @@
         <v>73</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>73</v>
@@ -12138,57 +12160,57 @@
         <v>73</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>187</v>
+        <v>413</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12208,16 +12230,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12268,7 +12290,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12280,7 +12302,7 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
@@ -12289,23 +12311,23 @@
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12317,15 +12339,17 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12362,31 +12386,31 @@
         <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12395,23 +12419,23 @@
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>73</v>
@@ -12420,20 +12444,18 @@
         <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
@@ -12470,31 +12492,31 @@
         <v>73</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12503,12 +12525,12 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12519,7 +12541,7 @@
         <v>74</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>73</v>
@@ -12528,23 +12550,19 @@
         <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12592,19 +12610,19 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>73</v>
@@ -12613,23 +12631,23 @@
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12641,15 +12659,17 @@
         <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>73</v>
@@ -12686,31 +12706,31 @@
         <v>73</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
@@ -12719,16 +12739,16 @@
         <v>73</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12744,21 +12764,23 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>73</v>
       </c>
@@ -12794,19 +12816,19 @@
         <v>73</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -12818,7 +12840,7 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>73</v>
@@ -12827,12 +12849,12 @@
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12852,23 +12874,19 @@
         <v>73</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
       </c>
@@ -12877,7 +12895,7 @@
         <v>73</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>73</v>
@@ -12916,7 +12934,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12928,7 +12946,7 @@
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -12937,23 +12955,23 @@
         <v>73</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>244</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>73</v>
@@ -12962,19 +12980,19 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13012,31 +13030,31 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13045,12 +13063,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>250</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13073,17 +13091,19 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N106" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
@@ -13093,7 +13113,7 @@
         <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>73</v>
@@ -13132,7 +13152,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13153,12 +13173,12 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13181,18 +13201,18 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
       </c>
@@ -13240,7 +13260,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13261,12 +13281,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13289,19 +13309,17 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13350,7 +13368,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13371,12 +13389,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13399,19 +13417,17 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13460,7 +13476,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13481,12 +13497,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13509,16 +13525,20 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13566,7 +13586,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13587,12 +13607,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>125</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13600,7 +13620,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>81</v>
@@ -13615,16 +13635,20 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13660,20 +13684,22 @@
         <v>73</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -13685,22 +13711,20 @@
         <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>73</v>
       </c>
@@ -13721,13 +13745,13 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>425</v>
+        <v>281</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>426</v>
+        <v>282</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13778,10 +13802,10 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>424</v>
+        <v>283</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -13793,18 +13817,18 @@
         <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13812,7 +13836,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>81</v>
@@ -13824,16 +13848,16 @@
         <v>73</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>182</v>
+        <v>433</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>183</v>
+        <v>434</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13872,22 +13896,20 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -13896,32 +13918,34 @@
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B114" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="C114" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>73</v>
@@ -13930,20 +13954,18 @@
         <v>73</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -13980,45 +14002,45 @@
         <v>73</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>187</v>
+        <v>431</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14038,16 +14060,16 @@
         <v>73</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14098,7 +14120,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14110,7 +14132,7 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>73</v>
@@ -14119,23 +14141,23 @@
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14147,15 +14169,17 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>73</v>
@@ -14192,31 +14216,31 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
@@ -14225,23 +14249,23 @@
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14250,20 +14274,18 @@
         <v>73</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14300,31 +14322,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14333,12 +14355,12 @@
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14358,23 +14380,19 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14422,7 +14440,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14434,7 +14452,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14443,52 +14461,50 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P119" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14508,41 +14524,43 @@
         <v>73</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X119" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y119" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14551,12 +14569,12 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>323</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14579,17 +14597,19 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N120" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14638,7 +14658,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14659,12 +14679,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14672,7 +14692,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>81</v>
@@ -14681,33 +14701,35 @@
         <v>73</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -14722,13 +14744,11 @@
         <v>73</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X121" s="2"/>
       <c r="Y121" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>73</v>
@@ -14746,7 +14766,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -14755,7 +14775,7 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14767,12 +14787,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14795,19 +14815,17 @@
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14856,7 +14874,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -14877,12 +14895,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14890,7 +14908,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>81</v>
@@ -14905,16 +14923,18 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -14923,7 +14943,7 @@
         <v>73</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>73</v>
@@ -14962,7 +14982,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -14971,7 +14991,7 @@
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>93</v>
@@ -14983,12 +15003,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15008,19 +15028,23 @@
         <v>73</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15068,7 +15092,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15080,7 +15104,7 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -15089,23 +15113,23 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>143</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>73</v>
@@ -15114,20 +15138,18 @@
         <v>73</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15164,31 +15186,31 @@
         <v>73</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15197,12 +15219,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15222,23 +15244,19 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>73</v>
       </c>
@@ -15286,7 +15304,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15298,7 +15316,7 @@
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -15307,52 +15325,50 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P127" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15372,41 +15388,43 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X127" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y127" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>73</v>
@@ -15415,12 +15433,12 @@
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>323</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15443,17 +15461,19 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N128" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15478,11 +15498,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X128" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y128" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15500,7 +15522,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15521,12 +15543,12 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15534,37 +15556,39 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15584,13 +15608,11 @@
         <v>73</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -15608,7 +15630,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15617,7 +15639,7 @@
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15629,12 +15651,12 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15657,19 +15679,17 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15694,13 +15714,11 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X130" s="2"/>
       <c r="Y130" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>
@@ -15718,7 +15736,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -15739,12 +15757,12 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15752,7 +15770,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>81</v>
@@ -15767,16 +15785,18 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>448</v>
+        <v>334</v>
       </c>
       <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -15824,7 +15844,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>447</v>
+        <v>337</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -15833,24 +15853,24 @@
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>449</v>
+        <v>73</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15861,7 +15881,7 @@
         <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
@@ -15873,16 +15893,20 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -15906,13 +15930,13 @@
         <v>73</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>73</v>
@@ -15930,13 +15954,13 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
@@ -15945,12 +15969,224 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLIngredient</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLIngredient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -274,7 +274,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -364,7 +364,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -387,13 +387,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -436,7 +440,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -458,9 +462,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Ingredient.status</t>
   </si>
   <si>
@@ -479,13 +480,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -544,15 +545,6 @@
     <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
   </si>
   <si>
-    <t>Ingredient.group</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
-  </si>
-  <si>
     <t>Ingredient.allergenicIndicator</t>
   </si>
   <si>
@@ -585,6 +577,10 @@
     <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Ingredient.manufacturer.id</t>
   </si>
   <si>
@@ -639,7 +635,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.3.0</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
@@ -772,7 +768,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -924,7 +920,7 @@
   </si>
   <si>
     <t>Ratio
-RatioRangeCodeableConceptQuantity</t>
+RatioRange</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation</t>
@@ -1009,7 +1005,7 @@
     <t>Ingredient.substance.strength.presentation[x].numerator.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -1021,7 +1017,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1097,10 +1093,6 @@
     <t>Ingredient.substance.strength.presentation[x].denominator</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
     <t>Denominator value</t>
   </si>
   <si>
@@ -1125,13 +1117,10 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.comparator</t>
   </si>
   <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
@@ -1233,15 +1222,6 @@
     <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio.</t>
   </si>
   <si>
-    <t>Ingredient.substance.strength.basis</t>
-  </si>
-  <si>
-    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt)</t>
-  </si>
-  <si>
-    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
-  </si>
-  <si>
     <t>Ingredient.substance.strength.measurementPoint</t>
   </si>
   <si>
@@ -1348,10 +1328,6 @@
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.strength[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RatioRangeQuantity</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance</t>
@@ -1729,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL134"/>
+  <dimension ref="A1:AL132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1748,7 +1724,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="129.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1762,7 +1738,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2634,7 +2610,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2643,16 +2619,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2671,16 +2647,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2730,7 +2706,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2742,7 +2718,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2751,16 +2727,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2776,22 +2752,22 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2840,7 +2816,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2852,7 +2828,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2861,12 +2837,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2889,13 +2865,13 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2946,7 +2922,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2961,10 +2937,10 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3069,7 +3045,7 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -3175,7 +3151,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -3387,7 +3363,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>73</v>
@@ -3421,20 +3397,22 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Q16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3493,7 +3471,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
@@ -3504,7 +3482,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3515,7 +3493,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3527,22 +3505,20 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P17" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3586,22 +3562,22 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
@@ -3612,7 +3588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3623,7 +3599,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3632,16 +3608,16 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3692,44 +3668,44 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3741,15 +3717,17 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3798,19 +3776,19 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3819,16 +3797,16 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3841,24 +3819,26 @@
         <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3906,7 +3886,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3918,7 +3898,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3927,48 +3907,44 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3992,13 +3968,13 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -4016,33 +3992,33 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4050,7 +4026,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
@@ -4065,13 +4041,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4098,34 +4074,34 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4137,7 +4113,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4148,7 +4124,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4171,13 +4147,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4228,7 +4204,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>81</v>
@@ -4240,10 +4216,10 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -4254,7 +4230,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4262,7 +4238,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
@@ -4274,16 +4250,16 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4334,10 +4310,10 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4346,32 +4322,32 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -4383,15 +4359,17 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4440,19 +4418,19 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4461,16 +4439,16 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4483,24 +4461,26 @@
         <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4548,7 +4528,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4560,7 +4540,7 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4569,48 +4549,44 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4634,13 +4610,13 @@
         <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4658,33 +4634,33 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4692,7 +4668,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>81</v>
@@ -4704,16 +4680,16 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4740,13 +4716,13 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4764,10 +4740,10 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4776,32 +4752,32 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4813,15 +4789,17 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
@@ -4858,31 +4836,31 @@
         <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4891,23 +4869,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4916,20 +4894,18 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4966,31 +4942,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4999,12 +4975,12 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5024,16 +5000,16 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5084,7 +5060,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5096,7 +5072,7 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5105,23 +5081,23 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5133,15 +5109,17 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5178,31 +5156,31 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5211,16 +5189,16 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5236,21 +5214,23 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5286,19 +5266,19 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5310,7 +5290,7 @@
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5319,12 +5299,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5335,7 +5315,7 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5344,23 +5324,19 @@
         <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5408,19 +5384,19 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5429,23 +5405,23 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5457,15 +5433,17 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5502,31 +5480,31 @@
         <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -5535,23 +5513,23 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5560,21 +5538,23 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5583,7 +5563,7 @@
         <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>73</v>
@@ -5610,31 +5590,31 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5643,12 +5623,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>142</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5671,20 +5651,18 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5693,7 +5671,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5732,7 +5710,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5753,12 +5731,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5781,18 +5759,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
       </c>
@@ -5840,7 +5818,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5861,12 +5839,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5889,17 +5867,17 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5948,7 +5926,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5969,12 +5947,12 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5997,17 +5975,19 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6056,7 +6036,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6077,12 +6057,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6105,19 +6085,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6166,7 +6146,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6187,12 +6167,12 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6215,20 +6195,16 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6276,7 +6252,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6297,12 +6273,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6310,10 +6286,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -6325,13 +6301,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6382,33 +6358,33 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6416,10 +6392,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6428,16 +6404,16 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6488,44 +6464,44 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6537,15 +6513,17 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6594,19 +6572,19 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6615,16 +6593,16 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6637,24 +6615,26 @@
         <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6702,7 +6682,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6714,7 +6694,7 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -6723,48 +6703,44 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6800,47 +6776,47 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6861,13 +6837,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6906,17 +6882,19 @@
         <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6931,7 +6909,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6942,11 +6920,9 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6964,16 +6940,16 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7024,7 +7000,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7036,32 +7012,32 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -7073,15 +7049,17 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7118,31 +7096,31 @@
         <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7151,23 +7129,23 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -7176,20 +7154,18 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7226,31 +7202,31 @@
         <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -7259,12 +7235,12 @@
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7284,16 +7260,16 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7344,7 +7320,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7356,7 +7332,7 @@
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7365,23 +7341,23 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7393,15 +7369,17 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -7438,31 +7416,31 @@
         <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7471,23 +7449,23 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7496,21 +7474,23 @@
         <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7546,31 +7526,31 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -7579,12 +7559,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7601,30 +7581,30 @@
         <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7644,13 +7624,11 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -7668,7 +7646,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7689,12 +7667,12 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7711,30 +7689,28 @@
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7754,11 +7730,13 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7776,7 +7754,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7797,12 +7775,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7810,7 +7788,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>81</v>
@@ -7825,17 +7803,17 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7845,7 +7823,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7884,7 +7862,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7893,7 +7871,7 @@
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7905,12 +7883,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7918,7 +7896,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>81</v>
@@ -7933,17 +7911,19 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7953,7 +7933,7 @@
         <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7992,7 +7972,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8001,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>93</v>
@@ -8013,12 +7993,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8041,20 +8021,16 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -8102,7 +8078,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8123,12 +8099,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8148,16 +8124,16 @@
         <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8208,7 +8184,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8220,7 +8196,7 @@
         <v>73</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>73</v>
@@ -8229,23 +8205,23 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -8257,15 +8233,17 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8302,31 +8280,31 @@
         <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>73</v>
@@ -8335,23 +8313,23 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8360,21 +8338,23 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8410,31 +8390,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8443,12 +8423,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8465,30 +8445,30 @@
         <v>73</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>73</v>
       </c>
@@ -8508,13 +8488,11 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
@@ -8532,7 +8510,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8553,12 +8531,12 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8569,36 +8547,34 @@
         <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P64" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8622,7 +8598,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8640,7 +8616,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8661,12 +8637,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8674,7 +8650,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>81</v>
@@ -8689,17 +8665,17 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8724,11 +8700,13 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -8746,7 +8724,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8755,7 +8733,7 @@
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8767,12 +8745,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8780,7 +8758,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>81</v>
@@ -8795,17 +8773,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8854,7 +8834,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8863,7 +8843,7 @@
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>93</v>
@@ -8875,12 +8855,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8903,20 +8883,16 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>73</v>
       </c>
@@ -8964,7 +8940,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8979,18 +8955,18 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9013,13 +8989,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9058,19 +9034,17 @@
         <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9085,7 +9059,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
@@ -9096,9 +9070,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9119,13 +9095,13 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>367</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9164,17 +9140,19 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9189,7 +9167,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
@@ -9200,11 +9178,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9222,16 +9198,16 @@
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9282,7 +9258,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>366</v>
+        <v>184</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9294,32 +9270,32 @@
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -9331,15 +9307,17 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9376,31 +9354,31 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9409,23 +9387,23 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9434,20 +9412,18 @@
         <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -9484,31 +9460,31 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9517,12 +9493,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9542,16 +9518,16 @@
         <v>73</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9602,7 +9578,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9614,7 +9590,7 @@
         <v>73</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
@@ -9623,23 +9599,23 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9651,15 +9627,17 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -9696,31 +9674,31 @@
         <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -9729,23 +9707,23 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -9754,21 +9732,23 @@
         <v>73</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
       </c>
@@ -9804,31 +9784,31 @@
         <v>73</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -9837,12 +9817,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9859,30 +9839,30 @@
         <v>73</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9902,13 +9882,11 @@
         <v>73</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>73</v>
@@ -9926,7 +9904,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9947,12 +9925,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9969,30 +9947,28 @@
         <v>73</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P77" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>73</v>
       </c>
@@ -10012,11 +9988,13 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10034,7 +10012,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10055,12 +10033,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10068,7 +10046,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>81</v>
@@ -10083,17 +10061,17 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10103,7 +10081,7 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>73</v>
@@ -10142,7 +10120,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10151,7 +10129,7 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10163,12 +10141,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10176,7 +10154,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>81</v>
@@ -10191,17 +10169,19 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10211,7 +10191,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -10250,7 +10230,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10259,7 +10239,7 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>93</v>
@@ -10271,12 +10251,12 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10299,20 +10279,16 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>73</v>
       </c>
@@ -10360,7 +10336,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10381,12 +10357,12 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10406,16 +10382,16 @@
         <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10466,7 +10442,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10478,7 +10454,7 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>73</v>
@@ -10487,23 +10463,23 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -10515,15 +10491,17 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10560,31 +10538,31 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10593,23 +10571,23 @@
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -10618,21 +10596,23 @@
         <v>73</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10668,31 +10648,31 @@
         <v>73</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>73</v>
@@ -10701,12 +10681,12 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10723,30 +10703,30 @@
         <v>73</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>73</v>
       </c>
@@ -10766,13 +10746,11 @@
         <v>73</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>73</v>
@@ -10790,7 +10768,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10811,12 +10789,12 @@
         <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10827,36 +10805,34 @@
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P85" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>73</v>
       </c>
@@ -10876,11 +10852,13 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y85" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10898,7 +10876,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10919,12 +10897,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10932,7 +10910,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>81</v>
@@ -10947,17 +10925,17 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10967,7 +10945,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -11006,7 +10984,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11015,7 +10993,7 @@
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11027,12 +11005,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11040,7 +11018,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>81</v>
@@ -11055,17 +11033,19 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N87" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11075,7 +11055,7 @@
         <v>73</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>73</v>
@@ -11114,7 +11094,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11123,7 +11103,7 @@
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>93</v>
@@ -11135,12 +11115,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11163,20 +11143,16 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>73</v>
       </c>
@@ -11224,7 +11200,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11239,18 +11215,18 @@
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11273,13 +11249,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11330,7 +11306,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11345,7 +11321,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>142</v>
+        <v>392</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>73</v>
@@ -11367,7 +11343,7 @@
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>73</v>
@@ -11412,13 +11388,13 @@
         <v>73</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>73</v>
@@ -11442,7 +11418,7 @@
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>73</v>
@@ -11451,7 +11427,7 @@
         <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>142</v>
+        <v>398</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>73</v>
@@ -11462,7 +11438,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11473,7 +11449,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>73</v>
@@ -11485,13 +11461,13 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11542,22 +11518,22 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>73</v>
@@ -11568,7 +11544,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11579,7 +11555,7 @@
         <v>74</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>73</v>
@@ -11588,16 +11564,16 @@
         <v>73</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>401</v>
+        <v>182</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11624,13 +11600,13 @@
         <v>73</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
@@ -11648,37 +11624,37 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>400</v>
+        <v>184</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11694,18 +11670,20 @@
         <v>73</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>407</v>
+        <v>129</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>73</v>
@@ -11754,7 +11732,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>406</v>
+        <v>187</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -11766,53 +11744,57 @@
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>409</v>
+        <v>73</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>73</v>
       </c>
@@ -11860,19 +11842,19 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>73</v>
@@ -11881,23 +11863,23 @@
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>73</v>
@@ -11906,20 +11888,18 @@
         <v>73</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>73</v>
@@ -11944,13 +11924,13 @@
         <v>73</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>73</v>
@@ -11968,69 +11948,65 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>73</v>
+        <v>408</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>73</v>
       </c>
@@ -12078,19 +12054,19 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
@@ -12099,23 +12075,23 @@
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12124,18 +12100,20 @@
         <v>73</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>73</v>
@@ -12160,57 +12138,57 @@
         <v>73</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12230,16 +12208,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12290,7 +12268,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12302,7 +12280,7 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
@@ -12311,23 +12289,23 @@
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12339,17 +12317,15 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12386,31 +12362,31 @@
         <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12419,23 +12395,23 @@
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>73</v>
@@ -12444,18 +12420,20 @@
         <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
@@ -12492,31 +12470,31 @@
         <v>73</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12525,12 +12503,12 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12541,7 +12519,7 @@
         <v>74</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>73</v>
@@ -12550,19 +12528,23 @@
         <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12610,19 +12592,19 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>73</v>
@@ -12631,23 +12613,23 @@
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12659,17 +12641,15 @@
         <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>73</v>
@@ -12706,31 +12686,31 @@
         <v>73</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
@@ -12739,16 +12719,16 @@
         <v>73</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12764,23 +12744,21 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>73</v>
       </c>
@@ -12816,19 +12794,19 @@
         <v>73</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -12840,7 +12818,7 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>73</v>
@@ -12849,12 +12827,12 @@
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12874,19 +12852,23 @@
         <v>73</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>73</v>
       </c>
@@ -12895,7 +12877,7 @@
         <v>73</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>73</v>
@@ -12934,7 +12916,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12946,7 +12928,7 @@
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -12955,23 +12937,23 @@
         <v>73</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>142</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>73</v>
@@ -12980,19 +12962,19 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13030,31 +13012,31 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13063,12 +13045,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>142</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13091,19 +13073,17 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
@@ -13113,7 +13093,7 @@
         <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>73</v>
@@ -13152,7 +13132,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13173,12 +13153,12 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13201,18 +13181,18 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>73</v>
       </c>
@@ -13260,7 +13240,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13281,12 +13261,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13309,17 +13289,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13368,7 +13350,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13389,12 +13371,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13417,17 +13399,19 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N109" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13476,7 +13460,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13497,12 +13481,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13525,20 +13509,16 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13586,7 +13566,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13607,12 +13587,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>271</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13620,7 +13600,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>81</v>
@@ -13635,20 +13615,16 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>273</v>
+        <v>425</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13684,22 +13660,20 @@
         <v>73</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>277</v>
+        <v>424</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -13711,20 +13685,22 @@
         <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="C112" t="s" s="2">
         <v>73</v>
       </c>
@@ -13745,13 +13721,13 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>281</v>
+        <v>425</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>282</v>
+        <v>426</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13802,10 +13778,10 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>283</v>
+        <v>424</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -13817,18 +13793,18 @@
         <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13836,7 +13812,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>81</v>
@@ -13848,16 +13824,16 @@
         <v>73</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>432</v>
+        <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>433</v>
+        <v>182</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>434</v>
+        <v>183</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13896,20 +13872,22 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB113" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>431</v>
+        <v>184</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -13918,34 +13896,32 @@
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>435</v>
+        <v>73</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>73</v>
@@ -13954,18 +13930,20 @@
         <v>73</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -14002,45 +13980,45 @@
         <v>73</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>431</v>
+        <v>187</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>435</v>
+        <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14060,16 +14038,16 @@
         <v>73</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14120,7 +14098,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14132,7 +14110,7 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>73</v>
@@ -14141,23 +14119,23 @@
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14169,17 +14147,15 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>73</v>
@@ -14216,31 +14192,31 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
@@ -14249,23 +14225,23 @@
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14274,18 +14250,20 @@
         <v>73</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14322,31 +14300,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14355,12 +14333,12 @@
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14380,19 +14358,23 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14440,7 +14422,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14452,7 +14434,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14461,50 +14443,52 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14524,43 +14508,41 @@
         <v>73</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X119" s="2"/>
       <c r="Y119" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14569,12 +14551,12 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>142</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14597,19 +14579,17 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14658,7 +14638,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14679,12 +14659,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14692,7 +14672,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>81</v>
@@ -14701,35 +14681,33 @@
         <v>73</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P121" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -14744,11 +14722,13 @@
         <v>73</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X121" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y121" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>73</v>
@@ -14766,7 +14746,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -14775,7 +14755,7 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14787,12 +14767,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14815,17 +14795,19 @@
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N122" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14874,7 +14856,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -14895,12 +14877,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14908,7 +14890,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>81</v>
@@ -14923,18 +14905,16 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -14943,7 +14923,7 @@
         <v>73</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>73</v>
@@ -14982,7 +14962,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -14991,7 +14971,7 @@
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>93</v>
@@ -15003,12 +14983,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15028,23 +15008,19 @@
         <v>73</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15092,7 +15068,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15104,7 +15080,7 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -15113,23 +15089,23 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>346</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>73</v>
@@ -15138,18 +15114,20 @@
         <v>73</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15186,31 +15164,31 @@
         <v>73</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15219,12 +15197,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15244,19 +15222,23 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
       </c>
@@ -15304,7 +15286,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15316,7 +15298,7 @@
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -15325,50 +15307,52 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15388,43 +15372,41 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X127" s="2"/>
       <c r="Y127" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>73</v>
@@ -15433,12 +15415,12 @@
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>142</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15461,19 +15443,17 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15498,13 +15478,11 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15522,7 +15500,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15543,12 +15521,12 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15556,39 +15534,37 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P129" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15608,11 +15584,13 @@
         <v>73</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X129" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y129" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -15630,7 +15608,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15639,7 +15617,7 @@
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15651,12 +15629,12 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15679,17 +15657,19 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N130" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15714,11 +15694,13 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X130" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y130" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>
@@ -15736,7 +15718,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -15757,12 +15739,12 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15770,7 +15752,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>81</v>
@@ -15785,18 +15767,16 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="M131" s="2"/>
-      <c r="N131" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -15844,7 +15824,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>337</v>
+        <v>447</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -15853,24 +15833,24 @@
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>73</v>
+        <v>449</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15881,7 +15861,7 @@
         <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
@@ -15893,20 +15873,16 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -15930,13 +15906,13 @@
         <v>73</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>73</v>
@@ -15954,13 +15930,13 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
@@ -15969,224 +15945,12 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>73</v>
+        <v>451</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL134" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLIngredient</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLIngredient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -274,7 +274,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -364,7 +364,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -387,17 +387,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -440,7 +436,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -462,6 +458,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>Ingredient.status</t>
   </si>
   <si>
@@ -480,13 +479,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
   </si>
   <si>
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -545,6 +544,15 @@
     <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
   </si>
   <si>
+    <t>Ingredient.group</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
+  </si>
+  <si>
     <t>Ingredient.allergenicIndicator</t>
   </si>
   <si>
@@ -577,10 +585,6 @@
     <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Ingredient.manufacturer.id</t>
   </si>
   <si>
@@ -635,7 +639,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-ballot</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
@@ -768,7 +772,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -920,7 +924,7 @@
   </si>
   <si>
     <t>Ratio
-RatioRange</t>
+RatioRangeCodeableConceptQuantity</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation</t>
@@ -1005,7 +1009,7 @@
     <t>Ingredient.substance.strength.presentation[x].numerator.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -1017,7 +1021,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1093,6 +1097,10 @@
     <t>Ingredient.substance.strength.presentation[x].denominator</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
     <t>Denominator value</t>
   </si>
   <si>
@@ -1117,10 +1125,13 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.comparator</t>
   </si>
   <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
@@ -1222,6 +1233,15 @@
     <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio.</t>
   </si>
   <si>
+    <t>Ingredient.substance.strength.basis</t>
+  </si>
+  <si>
+    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt)</t>
+  </si>
+  <si>
+    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.measurementPoint</t>
   </si>
   <si>
@@ -1328,6 +1348,10 @@
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.strength[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RatioRangeQuantity</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance</t>
@@ -1705,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL132"/>
+  <dimension ref="A1:AL134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1724,7 +1748,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1738,7 +1762,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2610,25 +2634,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2647,16 +2671,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2706,7 +2730,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2718,7 +2742,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2727,16 +2751,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2752,22 +2776,22 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2816,7 +2840,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2828,7 +2852,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2837,12 +2861,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2865,13 +2889,13 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2922,7 +2946,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2937,10 +2961,10 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3045,7 +3069,7 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -3151,7 +3175,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -3363,7 +3387,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>73</v>
@@ -3397,22 +3421,20 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P16" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3471,7 +3493,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
@@ -3482,7 +3504,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3493,7 +3515,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3505,20 +3527,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="Q17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3562,22 +3586,22 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
@@ -3588,7 +3612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3599,7 +3623,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3608,16 +3632,16 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3668,44 +3692,44 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3717,17 +3741,15 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3776,19 +3798,19 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3797,16 +3819,16 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3819,26 +3841,24 @@
         <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3898,7 +3918,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3907,44 +3927,48 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3968,13 +3992,13 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -3992,33 +4016,33 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4026,7 +4050,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
@@ -4041,13 +4065,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4074,13 +4098,13 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -4098,10 +4122,10 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4113,7 +4137,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4124,7 +4148,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4147,13 +4171,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4204,7 +4228,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>81</v>
@@ -4216,10 +4240,10 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -4230,7 +4254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4238,7 +4262,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
@@ -4250,16 +4274,16 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4310,10 +4334,10 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4322,32 +4346,32 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -4359,17 +4383,15 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4418,19 +4440,19 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4439,16 +4461,16 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4461,26 +4483,24 @@
         <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4528,7 +4548,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4540,7 +4560,7 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4549,44 +4569,48 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4610,13 +4634,13 @@
         <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4634,33 +4658,33 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4668,7 +4692,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>81</v>
@@ -4680,16 +4704,16 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4716,13 +4740,13 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4740,10 +4764,10 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4752,32 +4776,32 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4789,17 +4813,15 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
@@ -4836,31 +4858,31 @@
         <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4869,23 +4891,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4894,18 +4916,20 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4942,31 +4966,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4975,12 +4999,12 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5000,16 +5024,16 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5060,7 +5084,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5072,7 +5096,7 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5081,23 +5105,23 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5109,17 +5133,15 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5156,31 +5178,31 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5189,16 +5211,16 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5214,23 +5236,21 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5266,19 +5286,19 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5290,7 +5310,7 @@
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5299,12 +5319,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5315,7 +5335,7 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5324,19 +5344,23 @@
         <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5384,19 +5408,19 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5405,23 +5429,23 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5433,17 +5457,15 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5480,31 +5502,31 @@
         <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -5513,23 +5535,23 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5538,23 +5560,21 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5563,7 +5583,7 @@
         <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>73</v>
@@ -5590,31 +5610,31 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5623,12 +5643,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>244</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5651,18 +5671,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5710,7 +5732,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5731,12 +5753,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5759,18 +5781,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>73</v>
       </c>
@@ -5818,7 +5840,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5839,12 +5861,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5867,17 +5889,17 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5926,7 +5948,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5947,12 +5969,12 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5975,19 +5997,17 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6036,7 +6056,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6057,12 +6077,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6085,19 +6105,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6146,7 +6166,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6167,12 +6187,12 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6195,16 +6215,20 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6252,7 +6276,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6273,12 +6297,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>125</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6286,10 +6310,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -6301,13 +6325,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6358,33 +6382,33 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6392,10 +6416,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6404,16 +6428,16 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6464,44 +6488,44 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6513,17 +6537,15 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6572,19 +6594,19 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6593,16 +6615,16 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6615,26 +6637,24 @@
         <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6682,7 +6702,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6694,7 +6714,7 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -6703,44 +6723,48 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6776,47 +6800,47 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6837,13 +6861,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6882,19 +6906,17 @@
         <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6909,7 +6931,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6920,9 +6942,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6940,16 +6964,16 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7000,7 +7024,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7012,32 +7036,32 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -7049,17 +7073,15 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7096,31 +7118,31 @@
         <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7129,23 +7151,23 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -7154,18 +7176,20 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7202,31 +7226,31 @@
         <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -7235,12 +7259,12 @@
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7260,16 +7284,16 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7320,7 +7344,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7332,7 +7356,7 @@
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7341,23 +7365,23 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7369,17 +7393,15 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -7416,31 +7438,31 @@
         <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7449,23 +7471,23 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7474,23 +7496,21 @@
         <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7526,31 +7546,31 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -7559,12 +7579,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7581,30 +7601,30 @@
         <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7624,11 +7644,13 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -7646,7 +7668,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7667,12 +7689,12 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7689,28 +7711,30 @@
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7730,13 +7754,11 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7754,7 +7776,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7775,12 +7797,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7788,7 +7810,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>81</v>
@@ -7803,17 +7825,17 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7823,7 +7845,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7862,7 +7884,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7871,7 +7893,7 @@
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7883,12 +7905,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7896,7 +7918,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>81</v>
@@ -7911,19 +7933,17 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7933,7 +7953,7 @@
         <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7972,7 +7992,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7981,7 +8001,7 @@
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>93</v>
@@ -7993,12 +8013,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8021,16 +8041,20 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -8078,7 +8102,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8099,12 +8123,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8124,16 +8148,16 @@
         <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8184,7 +8208,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8196,7 +8220,7 @@
         <v>73</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>73</v>
@@ -8205,23 +8229,23 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -8233,17 +8257,15 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8280,31 +8302,31 @@
         <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>73</v>
@@ -8313,23 +8335,23 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8338,23 +8360,21 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8390,31 +8410,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8423,12 +8443,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8445,30 +8465,30 @@
         <v>73</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>73</v>
       </c>
@@ -8488,11 +8508,13 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
@@ -8510,7 +8532,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8531,12 +8553,12 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8547,34 +8569,36 @@
         <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8598,7 +8622,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8616,7 +8640,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8637,12 +8661,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8650,7 +8674,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>81</v>
@@ -8665,17 +8689,17 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8700,13 +8724,11 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -8724,7 +8746,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8733,7 +8755,7 @@
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8745,12 +8767,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8758,7 +8780,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>81</v>
@@ -8773,19 +8795,17 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8834,7 +8854,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8843,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>93</v>
@@ -8855,12 +8875,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8883,16 +8903,20 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>73</v>
       </c>
@@ -8940,7 +8964,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8955,18 +8979,18 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>73</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8989,13 +9013,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9034,17 +9058,19 @@
         <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB68" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9059,7 +9085,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
@@ -9070,11 +9096,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B69" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9095,13 +9119,13 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>367</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9140,19 +9164,17 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9167,7 +9189,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
@@ -9178,9 +9200,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9198,16 +9222,16 @@
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9258,7 +9282,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9270,32 +9294,32 @@
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -9307,17 +9331,15 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9354,31 +9376,31 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9387,23 +9409,23 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9412,18 +9434,20 @@
         <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -9460,31 +9484,31 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9493,12 +9517,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9518,16 +9542,16 @@
         <v>73</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9578,7 +9602,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9590,7 +9614,7 @@
         <v>73</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
@@ -9599,23 +9623,23 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9627,17 +9651,15 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -9674,31 +9696,31 @@
         <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -9707,23 +9729,23 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -9732,23 +9754,21 @@
         <v>73</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>73</v>
       </c>
@@ -9784,31 +9804,31 @@
         <v>73</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -9817,12 +9837,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9839,30 +9859,30 @@
         <v>73</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P76" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9882,11 +9902,13 @@
         <v>73</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X76" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y76" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>73</v>
@@ -9904,7 +9926,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9925,12 +9947,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9947,28 +9969,30 @@
         <v>73</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q77" t="s" s="2">
         <v>73</v>
       </c>
@@ -9988,13 +10012,11 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10012,7 +10034,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10033,12 +10055,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10046,7 +10068,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>81</v>
@@ -10061,17 +10083,17 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10081,7 +10103,7 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>73</v>
@@ -10120,7 +10142,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10129,7 +10151,7 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10141,12 +10163,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10154,7 +10176,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>81</v>
@@ -10169,19 +10191,17 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10191,7 +10211,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -10230,7 +10250,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10239,7 +10259,7 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>93</v>
@@ -10251,12 +10271,12 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10279,16 +10299,20 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>73</v>
       </c>
@@ -10336,7 +10360,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10357,12 +10381,12 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10382,16 +10406,16 @@
         <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10442,7 +10466,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10454,7 +10478,7 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>73</v>
@@ -10463,23 +10487,23 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -10491,17 +10515,15 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10538,31 +10560,31 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10571,23 +10593,23 @@
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -10596,23 +10618,21 @@
         <v>73</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10648,31 +10668,31 @@
         <v>73</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>73</v>
@@ -10681,12 +10701,12 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10703,30 +10723,30 @@
         <v>73</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N84" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P84" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>73</v>
       </c>
@@ -10746,11 +10766,13 @@
         <v>73</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X84" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y84" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>73</v>
@@ -10768,7 +10790,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10789,12 +10811,12 @@
         <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10805,34 +10827,36 @@
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>73</v>
       </c>
@@ -10852,13 +10876,11 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10876,7 +10898,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10897,12 +10919,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10910,7 +10932,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>81</v>
@@ -10925,17 +10947,17 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10945,7 +10967,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -10984,7 +11006,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -10993,7 +11015,7 @@
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11005,12 +11027,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11018,7 +11040,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>81</v>
@@ -11033,19 +11055,17 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11055,7 +11075,7 @@
         <v>73</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>73</v>
@@ -11094,7 +11114,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11103,7 +11123,7 @@
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>93</v>
@@ -11115,12 +11135,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11143,16 +11163,20 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
       </c>
@@ -11200,7 +11224,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11215,18 +11239,18 @@
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>73</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11249,13 +11273,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11306,7 +11330,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11321,7 +11345,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>73</v>
@@ -11343,7 +11367,7 @@
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>73</v>
@@ -11388,13 +11412,13 @@
         <v>73</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>73</v>
@@ -11418,7 +11442,7 @@
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>73</v>
@@ -11427,7 +11451,7 @@
         <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>398</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>73</v>
@@ -11438,7 +11462,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11449,7 +11473,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>73</v>
@@ -11461,13 +11485,13 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11518,22 +11542,22 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>73</v>
@@ -11544,7 +11568,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11555,7 +11579,7 @@
         <v>74</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>73</v>
@@ -11564,16 +11588,16 @@
         <v>73</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>182</v>
+        <v>401</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>183</v>
+        <v>402</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11600,13 +11624,13 @@
         <v>73</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
@@ -11624,37 +11648,37 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>184</v>
+        <v>400</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>73</v>
+        <v>405</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11670,20 +11694,18 @@
         <v>73</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>73</v>
@@ -11732,7 +11754,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>187</v>
+        <v>406</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -11744,57 +11766,53 @@
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>73</v>
+        <v>409</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>73</v>
       </c>
@@ -11842,19 +11860,19 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>73</v>
@@ -11863,23 +11881,23 @@
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>73</v>
@@ -11888,18 +11906,20 @@
         <v>73</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>73</v>
@@ -11924,13 +11944,13 @@
         <v>73</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>73</v>
@@ -11948,65 +11968,69 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>73</v>
       </c>
@@ -12054,19 +12078,19 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
@@ -12075,23 +12099,23 @@
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12100,20 +12124,18 @@
         <v>73</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>73</v>
@@ -12138,57 +12160,57 @@
         <v>73</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>187</v>
+        <v>413</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12208,16 +12230,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12268,7 +12290,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12280,7 +12302,7 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
@@ -12289,23 +12311,23 @@
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12317,15 +12339,17 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12362,31 +12386,31 @@
         <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12395,23 +12419,23 @@
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>73</v>
@@ -12420,20 +12444,18 @@
         <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
@@ -12470,31 +12492,31 @@
         <v>73</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12503,12 +12525,12 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12519,7 +12541,7 @@
         <v>74</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>73</v>
@@ -12528,23 +12550,19 @@
         <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12592,19 +12610,19 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>73</v>
@@ -12613,23 +12631,23 @@
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12641,15 +12659,17 @@
         <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>73</v>
@@ -12686,31 +12706,31 @@
         <v>73</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
@@ -12719,16 +12739,16 @@
         <v>73</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12744,21 +12764,23 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>73</v>
       </c>
@@ -12794,19 +12816,19 @@
         <v>73</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -12818,7 +12840,7 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>73</v>
@@ -12827,12 +12849,12 @@
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12852,23 +12874,19 @@
         <v>73</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
       </c>
@@ -12877,7 +12895,7 @@
         <v>73</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>73</v>
@@ -12916,7 +12934,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12928,7 +12946,7 @@
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -12937,23 +12955,23 @@
         <v>73</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>244</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>73</v>
@@ -12962,19 +12980,19 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13012,31 +13030,31 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13045,12 +13063,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>250</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13073,17 +13091,19 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N106" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
@@ -13093,7 +13113,7 @@
         <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>73</v>
@@ -13132,7 +13152,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13153,12 +13173,12 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13181,18 +13201,18 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
       </c>
@@ -13240,7 +13260,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13261,12 +13281,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13289,19 +13309,17 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13350,7 +13368,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13371,12 +13389,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13399,19 +13417,17 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13460,7 +13476,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13481,12 +13497,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13509,16 +13525,20 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13566,7 +13586,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13587,12 +13607,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>125</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13600,7 +13620,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>81</v>
@@ -13615,16 +13635,20 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13660,20 +13684,22 @@
         <v>73</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -13685,22 +13711,20 @@
         <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>73</v>
       </c>
@@ -13721,13 +13745,13 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>425</v>
+        <v>281</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>426</v>
+        <v>282</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13778,10 +13802,10 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>424</v>
+        <v>283</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -13793,18 +13817,18 @@
         <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13812,7 +13836,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>81</v>
@@ -13824,16 +13848,16 @@
         <v>73</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>182</v>
+        <v>433</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>183</v>
+        <v>434</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13872,22 +13896,20 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -13896,32 +13918,34 @@
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B114" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="C114" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>73</v>
@@ -13930,20 +13954,18 @@
         <v>73</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -13980,45 +14002,45 @@
         <v>73</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>187</v>
+        <v>431</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14038,16 +14060,16 @@
         <v>73</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14098,7 +14120,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14110,7 +14132,7 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>73</v>
@@ -14119,23 +14141,23 @@
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14147,15 +14169,17 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>73</v>
@@ -14192,31 +14216,31 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
@@ -14225,23 +14249,23 @@
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14250,20 +14274,18 @@
         <v>73</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14300,31 +14322,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14333,12 +14355,12 @@
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14358,23 +14380,19 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14422,7 +14440,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14434,7 +14452,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14443,52 +14461,50 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P119" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14508,41 +14524,43 @@
         <v>73</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X119" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y119" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14551,12 +14569,12 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>323</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14579,17 +14597,19 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N120" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14638,7 +14658,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14659,12 +14679,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14672,7 +14692,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>81</v>
@@ -14681,33 +14701,35 @@
         <v>73</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -14722,13 +14744,11 @@
         <v>73</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X121" s="2"/>
       <c r="Y121" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>73</v>
@@ -14746,7 +14766,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -14755,7 +14775,7 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14767,12 +14787,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14795,19 +14815,17 @@
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14856,7 +14874,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -14877,12 +14895,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14890,7 +14908,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>81</v>
@@ -14905,16 +14923,18 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -14923,7 +14943,7 @@
         <v>73</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>73</v>
@@ -14962,7 +14982,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -14971,7 +14991,7 @@
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>93</v>
@@ -14983,12 +15003,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15008,19 +15028,23 @@
         <v>73</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15068,7 +15092,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15080,7 +15104,7 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -15089,23 +15113,23 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>143</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>73</v>
@@ -15114,20 +15138,18 @@
         <v>73</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15164,31 +15186,31 @@
         <v>73</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15197,12 +15219,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15222,23 +15244,19 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>73</v>
       </c>
@@ -15286,7 +15304,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15298,7 +15316,7 @@
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -15307,52 +15325,50 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P127" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15372,41 +15388,43 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X127" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y127" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>73</v>
@@ -15415,12 +15433,12 @@
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>323</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15443,17 +15461,19 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N128" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15478,11 +15498,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X128" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y128" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15500,7 +15522,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15521,12 +15543,12 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15534,37 +15556,39 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15584,13 +15608,11 @@
         <v>73</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -15608,7 +15630,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15617,7 +15639,7 @@
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15629,12 +15651,12 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15657,19 +15679,17 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15694,13 +15714,11 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X130" s="2"/>
       <c r="Y130" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>
@@ -15718,7 +15736,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -15739,12 +15757,12 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15752,7 +15770,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>81</v>
@@ -15767,16 +15785,18 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>448</v>
+        <v>334</v>
       </c>
       <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -15824,7 +15844,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>447</v>
+        <v>337</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -15833,24 +15853,24 @@
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>449</v>
+        <v>73</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15861,7 +15881,7 @@
         <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
@@ -15873,16 +15893,20 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -15906,13 +15930,13 @@
         <v>73</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>73</v>
@@ -15930,13 +15954,13 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
@@ -15945,12 +15969,224 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLIngredient</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLIngredient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -274,7 +274,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -364,7 +364,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -387,13 +387,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -436,7 +440,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -458,9 +462,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Ingredient.status</t>
   </si>
   <si>
@@ -479,13 +480,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -544,15 +545,6 @@
     <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
   </si>
   <si>
-    <t>Ingredient.group</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
-  </si>
-  <si>
     <t>Ingredient.allergenicIndicator</t>
   </si>
   <si>
@@ -585,6 +577,10 @@
     <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Ingredient.manufacturer.id</t>
   </si>
   <si>
@@ -639,7 +635,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.3.0</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
@@ -772,7 +768,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -924,7 +920,7 @@
   </si>
   <si>
     <t>Ratio
-RatioRangeCodeableConceptQuantity</t>
+RatioRange</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation</t>
@@ -1009,7 +1005,7 @@
     <t>Ingredient.substance.strength.presentation[x].numerator.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -1021,7 +1017,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1097,10 +1093,6 @@
     <t>Ingredient.substance.strength.presentation[x].denominator</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
     <t>Denominator value</t>
   </si>
   <si>
@@ -1125,13 +1117,10 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.comparator</t>
   </si>
   <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
@@ -1233,15 +1222,6 @@
     <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio.</t>
   </si>
   <si>
-    <t>Ingredient.substance.strength.basis</t>
-  </si>
-  <si>
-    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt)</t>
-  </si>
-  <si>
-    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
-  </si>
-  <si>
     <t>Ingredient.substance.strength.measurementPoint</t>
   </si>
   <si>
@@ -1348,10 +1328,6 @@
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.strength[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RatioRangeQuantity</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance</t>
@@ -1729,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL134"/>
+  <dimension ref="A1:AL132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1748,7 +1724,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="129.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1762,7 +1738,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2634,7 +2610,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2643,16 +2619,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2671,16 +2647,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2730,7 +2706,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2742,7 +2718,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2751,16 +2727,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2776,22 +2752,22 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2840,7 +2816,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2852,7 +2828,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2861,12 +2837,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2889,13 +2865,13 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2946,7 +2922,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2961,10 +2937,10 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3069,7 +3045,7 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -3175,7 +3151,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -3387,7 +3363,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>73</v>
@@ -3421,20 +3397,22 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Q16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3493,7 +3471,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
@@ -3504,7 +3482,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3515,7 +3493,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3527,22 +3505,20 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P17" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3586,22 +3562,22 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
@@ -3612,7 +3588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3623,7 +3599,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3632,16 +3608,16 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3692,44 +3668,44 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3741,15 +3717,17 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3798,19 +3776,19 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3819,16 +3797,16 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3841,24 +3819,26 @@
         <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3906,7 +3886,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3918,7 +3898,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3927,48 +3907,44 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3992,13 +3968,13 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -4016,33 +3992,33 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4050,7 +4026,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
@@ -4065,13 +4041,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4098,34 +4074,34 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4137,7 +4113,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4148,7 +4124,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4171,13 +4147,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4228,7 +4204,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>81</v>
@@ -4240,10 +4216,10 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -4254,7 +4230,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4262,7 +4238,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
@@ -4274,16 +4250,16 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4334,10 +4310,10 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4346,32 +4322,32 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -4383,15 +4359,17 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4440,19 +4418,19 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4461,16 +4439,16 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4483,24 +4461,26 @@
         <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4548,7 +4528,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4560,7 +4540,7 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4569,48 +4549,44 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4634,13 +4610,13 @@
         <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4658,33 +4634,33 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4692,7 +4668,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>81</v>
@@ -4704,16 +4680,16 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4740,13 +4716,13 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4764,10 +4740,10 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4776,32 +4752,32 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4813,15 +4789,17 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
@@ -4858,31 +4836,31 @@
         <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4891,23 +4869,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4916,20 +4894,18 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4966,31 +4942,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4999,12 +4975,12 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5024,16 +5000,16 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5084,7 +5060,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5096,7 +5072,7 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5105,23 +5081,23 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5133,15 +5109,17 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5178,31 +5156,31 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5211,16 +5189,16 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5236,21 +5214,23 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5286,19 +5266,19 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5310,7 +5290,7 @@
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5319,12 +5299,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5335,7 +5315,7 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5344,23 +5324,19 @@
         <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5408,19 +5384,19 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5429,23 +5405,23 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5457,15 +5433,17 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5502,31 +5480,31 @@
         <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -5535,23 +5513,23 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5560,21 +5538,23 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5583,7 +5563,7 @@
         <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>73</v>
@@ -5610,31 +5590,31 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5643,12 +5623,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>142</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5671,20 +5651,18 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5693,7 +5671,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5732,7 +5710,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5753,12 +5731,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5781,18 +5759,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
       </c>
@@ -5840,7 +5818,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5861,12 +5839,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5889,17 +5867,17 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5948,7 +5926,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5969,12 +5947,12 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5997,17 +5975,19 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6056,7 +6036,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6077,12 +6057,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6105,19 +6085,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6166,7 +6146,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6187,12 +6167,12 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6215,20 +6195,16 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6276,7 +6252,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6297,12 +6273,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6310,10 +6286,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -6325,13 +6301,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6382,33 +6358,33 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6416,10 +6392,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6428,16 +6404,16 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6488,44 +6464,44 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6537,15 +6513,17 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6594,19 +6572,19 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6615,16 +6593,16 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6637,24 +6615,26 @@
         <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6702,7 +6682,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6714,7 +6694,7 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -6723,48 +6703,44 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6800,47 +6776,47 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6861,13 +6837,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6906,17 +6882,19 @@
         <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6931,7 +6909,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6942,11 +6920,9 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6964,16 +6940,16 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7024,7 +7000,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7036,32 +7012,32 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -7073,15 +7049,17 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7118,31 +7096,31 @@
         <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7151,23 +7129,23 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -7176,20 +7154,18 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7226,31 +7202,31 @@
         <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -7259,12 +7235,12 @@
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7284,16 +7260,16 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7344,7 +7320,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7356,7 +7332,7 @@
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7365,23 +7341,23 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7393,15 +7369,17 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -7438,31 +7416,31 @@
         <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7471,23 +7449,23 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7496,21 +7474,23 @@
         <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7546,31 +7526,31 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -7579,12 +7559,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7601,30 +7581,30 @@
         <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7644,13 +7624,11 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -7668,7 +7646,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7689,12 +7667,12 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7711,30 +7689,28 @@
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7754,11 +7730,13 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7776,7 +7754,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7797,12 +7775,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7810,7 +7788,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>81</v>
@@ -7825,17 +7803,17 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7845,7 +7823,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7884,7 +7862,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7893,7 +7871,7 @@
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7905,12 +7883,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7918,7 +7896,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>81</v>
@@ -7933,17 +7911,19 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7953,7 +7933,7 @@
         <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7992,7 +7972,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8001,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>93</v>
@@ -8013,12 +7993,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8041,20 +8021,16 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -8102,7 +8078,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8123,12 +8099,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8148,16 +8124,16 @@
         <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8208,7 +8184,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8220,7 +8196,7 @@
         <v>73</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>73</v>
@@ -8229,23 +8205,23 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -8257,15 +8233,17 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8302,31 +8280,31 @@
         <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>73</v>
@@ -8335,23 +8313,23 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8360,21 +8338,23 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8410,31 +8390,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8443,12 +8423,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8465,30 +8445,30 @@
         <v>73</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>73</v>
       </c>
@@ -8508,13 +8488,11 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
@@ -8532,7 +8510,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8553,12 +8531,12 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8569,36 +8547,34 @@
         <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P64" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8622,7 +8598,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8640,7 +8616,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8661,12 +8637,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8674,7 +8650,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>81</v>
@@ -8689,17 +8665,17 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8724,11 +8700,13 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -8746,7 +8724,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8755,7 +8733,7 @@
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8767,12 +8745,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8780,7 +8758,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>81</v>
@@ -8795,17 +8773,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8854,7 +8834,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8863,7 +8843,7 @@
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>93</v>
@@ -8875,12 +8855,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8903,20 +8883,16 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>73</v>
       </c>
@@ -8964,7 +8940,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8979,18 +8955,18 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9013,13 +8989,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9058,19 +9034,17 @@
         <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9085,7 +9059,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
@@ -9096,9 +9070,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9119,13 +9095,13 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>367</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9164,17 +9140,19 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9189,7 +9167,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
@@ -9200,11 +9178,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9222,16 +9198,16 @@
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9282,7 +9258,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>366</v>
+        <v>184</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9294,32 +9270,32 @@
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -9331,15 +9307,17 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9376,31 +9354,31 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9409,23 +9387,23 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9434,20 +9412,18 @@
         <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -9484,31 +9460,31 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9517,12 +9493,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9542,16 +9518,16 @@
         <v>73</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9602,7 +9578,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9614,7 +9590,7 @@
         <v>73</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
@@ -9623,23 +9599,23 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9651,15 +9627,17 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -9696,31 +9674,31 @@
         <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -9729,23 +9707,23 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -9754,21 +9732,23 @@
         <v>73</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
       </c>
@@ -9804,31 +9784,31 @@
         <v>73</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -9837,12 +9817,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9859,30 +9839,30 @@
         <v>73</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9902,13 +9882,11 @@
         <v>73</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>73</v>
@@ -9926,7 +9904,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9947,12 +9925,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9969,30 +9947,28 @@
         <v>73</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P77" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>73</v>
       </c>
@@ -10012,11 +9988,13 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10034,7 +10012,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10055,12 +10033,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10068,7 +10046,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>81</v>
@@ -10083,17 +10061,17 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10103,7 +10081,7 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>73</v>
@@ -10142,7 +10120,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10151,7 +10129,7 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10163,12 +10141,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10176,7 +10154,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>81</v>
@@ -10191,17 +10169,19 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10211,7 +10191,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -10250,7 +10230,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10259,7 +10239,7 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>93</v>
@@ -10271,12 +10251,12 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10299,20 +10279,16 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>73</v>
       </c>
@@ -10360,7 +10336,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10381,12 +10357,12 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10406,16 +10382,16 @@
         <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10466,7 +10442,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10478,7 +10454,7 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>73</v>
@@ -10487,23 +10463,23 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -10515,15 +10491,17 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10560,31 +10538,31 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10593,23 +10571,23 @@
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -10618,21 +10596,23 @@
         <v>73</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10668,31 +10648,31 @@
         <v>73</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>73</v>
@@ -10701,12 +10681,12 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10723,30 +10703,30 @@
         <v>73</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>73</v>
       </c>
@@ -10766,13 +10746,11 @@
         <v>73</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>73</v>
@@ -10790,7 +10768,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10811,12 +10789,12 @@
         <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10827,36 +10805,34 @@
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P85" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>73</v>
       </c>
@@ -10876,11 +10852,13 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y85" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10898,7 +10876,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10919,12 +10897,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10932,7 +10910,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>81</v>
@@ -10947,17 +10925,17 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10967,7 +10945,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -11006,7 +10984,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11015,7 +10993,7 @@
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11027,12 +11005,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11040,7 +11018,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>81</v>
@@ -11055,17 +11033,19 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N87" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11075,7 +11055,7 @@
         <v>73</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>73</v>
@@ -11114,7 +11094,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11123,7 +11103,7 @@
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>93</v>
@@ -11135,12 +11115,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11163,20 +11143,16 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>73</v>
       </c>
@@ -11224,7 +11200,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11239,18 +11215,18 @@
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11273,13 +11249,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11330,7 +11306,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11345,7 +11321,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>142</v>
+        <v>392</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>73</v>
@@ -11367,7 +11343,7 @@
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>73</v>
@@ -11412,13 +11388,13 @@
         <v>73</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>73</v>
@@ -11442,7 +11418,7 @@
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>73</v>
@@ -11451,7 +11427,7 @@
         <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>142</v>
+        <v>398</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>73</v>
@@ -11462,7 +11438,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11473,7 +11449,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>73</v>
@@ -11485,13 +11461,13 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11542,22 +11518,22 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>73</v>
@@ -11568,7 +11544,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11579,7 +11555,7 @@
         <v>74</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>73</v>
@@ -11588,16 +11564,16 @@
         <v>73</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>401</v>
+        <v>182</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11624,13 +11600,13 @@
         <v>73</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
@@ -11648,37 +11624,37 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>400</v>
+        <v>184</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11694,18 +11670,20 @@
         <v>73</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>407</v>
+        <v>129</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>73</v>
@@ -11754,7 +11732,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>406</v>
+        <v>187</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -11766,53 +11744,57 @@
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>409</v>
+        <v>73</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>73</v>
       </c>
@@ -11860,19 +11842,19 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>73</v>
@@ -11881,23 +11863,23 @@
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>73</v>
@@ -11906,20 +11888,18 @@
         <v>73</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>73</v>
@@ -11944,13 +11924,13 @@
         <v>73</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>73</v>
@@ -11968,69 +11948,65 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>73</v>
+        <v>408</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>73</v>
       </c>
@@ -12078,19 +12054,19 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
@@ -12099,23 +12075,23 @@
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12124,18 +12100,20 @@
         <v>73</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>73</v>
@@ -12160,57 +12138,57 @@
         <v>73</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12230,16 +12208,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12290,7 +12268,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12302,7 +12280,7 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
@@ -12311,23 +12289,23 @@
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12339,17 +12317,15 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12386,31 +12362,31 @@
         <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12419,23 +12395,23 @@
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>73</v>
@@ -12444,18 +12420,20 @@
         <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
@@ -12492,31 +12470,31 @@
         <v>73</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12525,12 +12503,12 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12541,7 +12519,7 @@
         <v>74</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>73</v>
@@ -12550,19 +12528,23 @@
         <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12610,19 +12592,19 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>73</v>
@@ -12631,23 +12613,23 @@
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12659,17 +12641,15 @@
         <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>73</v>
@@ -12706,31 +12686,31 @@
         <v>73</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
@@ -12739,16 +12719,16 @@
         <v>73</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12764,23 +12744,21 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>73</v>
       </c>
@@ -12816,19 +12794,19 @@
         <v>73</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -12840,7 +12818,7 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>73</v>
@@ -12849,12 +12827,12 @@
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12874,19 +12852,23 @@
         <v>73</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>73</v>
       </c>
@@ -12895,7 +12877,7 @@
         <v>73</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>73</v>
@@ -12934,7 +12916,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12946,7 +12928,7 @@
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -12955,23 +12937,23 @@
         <v>73</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>142</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>73</v>
@@ -12980,19 +12962,19 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13030,31 +13012,31 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13063,12 +13045,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>142</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13091,19 +13073,17 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
@@ -13113,7 +13093,7 @@
         <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>73</v>
@@ -13152,7 +13132,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13173,12 +13153,12 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13201,18 +13181,18 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>73</v>
       </c>
@@ -13260,7 +13240,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13281,12 +13261,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13309,17 +13289,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13368,7 +13350,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13389,12 +13371,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13417,17 +13399,19 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N109" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13476,7 +13460,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13497,12 +13481,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13525,20 +13509,16 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13586,7 +13566,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13607,12 +13587,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>271</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13620,7 +13600,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>81</v>
@@ -13635,20 +13615,16 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>273</v>
+        <v>425</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13684,22 +13660,20 @@
         <v>73</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>277</v>
+        <v>424</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -13711,20 +13685,22 @@
         <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="C112" t="s" s="2">
         <v>73</v>
       </c>
@@ -13745,13 +13721,13 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>281</v>
+        <v>425</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>282</v>
+        <v>426</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13802,10 +13778,10 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>283</v>
+        <v>424</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -13817,18 +13793,18 @@
         <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13836,7 +13812,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>81</v>
@@ -13848,16 +13824,16 @@
         <v>73</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>432</v>
+        <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>433</v>
+        <v>182</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>434</v>
+        <v>183</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13896,20 +13872,22 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB113" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>431</v>
+        <v>184</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -13918,34 +13896,32 @@
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>435</v>
+        <v>73</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>73</v>
@@ -13954,18 +13930,20 @@
         <v>73</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -14002,45 +13980,45 @@
         <v>73</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>431</v>
+        <v>187</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>435</v>
+        <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14060,16 +14038,16 @@
         <v>73</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14120,7 +14098,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14132,7 +14110,7 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>73</v>
@@ -14141,23 +14119,23 @@
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14169,17 +14147,15 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>73</v>
@@ -14216,31 +14192,31 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
@@ -14249,23 +14225,23 @@
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14274,18 +14250,20 @@
         <v>73</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14322,31 +14300,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14355,12 +14333,12 @@
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14380,19 +14358,23 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14440,7 +14422,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14452,7 +14434,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14461,50 +14443,52 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14524,43 +14508,41 @@
         <v>73</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X119" s="2"/>
       <c r="Y119" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14569,12 +14551,12 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>142</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14597,19 +14579,17 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14658,7 +14638,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14679,12 +14659,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14692,7 +14672,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>81</v>
@@ -14701,35 +14681,33 @@
         <v>73</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P121" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -14744,11 +14722,13 @@
         <v>73</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X121" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y121" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>73</v>
@@ -14766,7 +14746,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -14775,7 +14755,7 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14787,12 +14767,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14815,17 +14795,19 @@
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N122" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14874,7 +14856,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -14895,12 +14877,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14908,7 +14890,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>81</v>
@@ -14923,18 +14905,16 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -14943,7 +14923,7 @@
         <v>73</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>73</v>
@@ -14982,7 +14962,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -14991,7 +14971,7 @@
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>93</v>
@@ -15003,12 +14983,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15028,23 +15008,19 @@
         <v>73</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15092,7 +15068,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15104,7 +15080,7 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -15113,23 +15089,23 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>346</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>73</v>
@@ -15138,18 +15114,20 @@
         <v>73</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15186,31 +15164,31 @@
         <v>73</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15219,12 +15197,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15244,19 +15222,23 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
       </c>
@@ -15304,7 +15286,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15316,7 +15298,7 @@
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -15325,50 +15307,52 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15388,43 +15372,41 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X127" s="2"/>
       <c r="Y127" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>73</v>
@@ -15433,12 +15415,12 @@
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>142</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15461,19 +15443,17 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15498,13 +15478,11 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15522,7 +15500,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15543,12 +15521,12 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15556,39 +15534,37 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P129" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15608,11 +15584,13 @@
         <v>73</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X129" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y129" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -15630,7 +15608,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15639,7 +15617,7 @@
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15651,12 +15629,12 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15679,17 +15657,19 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N130" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15714,11 +15694,13 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X130" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y130" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>
@@ -15736,7 +15718,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -15757,12 +15739,12 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15770,7 +15752,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>81</v>
@@ -15785,18 +15767,16 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="M131" s="2"/>
-      <c r="N131" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -15844,7 +15824,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>337</v>
+        <v>447</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -15853,24 +15833,24 @@
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>73</v>
+        <v>449</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15881,7 +15861,7 @@
         <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
@@ -15893,20 +15873,16 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -15930,13 +15906,13 @@
         <v>73</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>73</v>
@@ -15954,13 +15930,13 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
@@ -15969,224 +15945,12 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>73</v>
+        <v>451</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL134" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLIngredient</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLIngredient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -274,7 +274,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -364,7 +364,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -387,17 +387,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -440,7 +436,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -462,6 +458,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>Ingredient.status</t>
   </si>
   <si>
@@ -480,13 +479,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
   </si>
   <si>
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -545,6 +544,15 @@
     <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
   </si>
   <si>
+    <t>Ingredient.group</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
+  </si>
+  <si>
     <t>Ingredient.allergenicIndicator</t>
   </si>
   <si>
@@ -577,10 +585,6 @@
     <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Ingredient.manufacturer.id</t>
   </si>
   <si>
@@ -635,7 +639,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-ballot</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
@@ -768,7 +772,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -920,7 +924,7 @@
   </si>
   <si>
     <t>Ratio
-RatioRange</t>
+RatioRangeCodeableConceptQuantity</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation</t>
@@ -1005,7 +1009,7 @@
     <t>Ingredient.substance.strength.presentation[x].numerator.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -1017,7 +1021,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1093,6 +1097,10 @@
     <t>Ingredient.substance.strength.presentation[x].denominator</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
     <t>Denominator value</t>
   </si>
   <si>
@@ -1117,10 +1125,13 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.comparator</t>
   </si>
   <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
@@ -1222,6 +1233,15 @@
     <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio.</t>
   </si>
   <si>
+    <t>Ingredient.substance.strength.basis</t>
+  </si>
+  <si>
+    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt)</t>
+  </si>
+  <si>
+    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.measurementPoint</t>
   </si>
   <si>
@@ -1328,6 +1348,10 @@
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.strength[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RatioRangeQuantity</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance</t>
@@ -1705,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL132"/>
+  <dimension ref="A1:AL134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1724,7 +1748,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1738,7 +1762,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2610,25 +2634,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2647,16 +2671,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2706,7 +2730,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2718,7 +2742,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2727,16 +2751,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2752,22 +2776,22 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2816,7 +2840,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2828,7 +2852,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2837,12 +2861,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2865,13 +2889,13 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2922,7 +2946,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2937,10 +2961,10 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3045,7 +3069,7 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -3151,7 +3175,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -3363,7 +3387,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>73</v>
@@ -3397,22 +3421,20 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P16" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3471,7 +3493,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
@@ -3482,7 +3504,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3493,7 +3515,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3505,20 +3527,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="Q17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3562,22 +3586,22 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
@@ -3588,7 +3612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3599,7 +3623,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3608,16 +3632,16 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3668,44 +3692,44 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3717,17 +3741,15 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3776,19 +3798,19 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3797,16 +3819,16 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3819,26 +3841,24 @@
         <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3898,7 +3918,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3907,44 +3927,48 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3968,13 +3992,13 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -3992,33 +4016,33 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4026,7 +4050,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
@@ -4041,13 +4065,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4074,13 +4098,13 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -4098,10 +4122,10 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4113,7 +4137,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4124,7 +4148,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4147,13 +4171,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4204,7 +4228,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>81</v>
@@ -4216,10 +4240,10 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -4230,7 +4254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4238,7 +4262,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
@@ -4250,16 +4274,16 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4310,10 +4334,10 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4322,32 +4346,32 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -4359,17 +4383,15 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4418,19 +4440,19 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4439,16 +4461,16 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4461,26 +4483,24 @@
         <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4528,7 +4548,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4540,7 +4560,7 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4549,44 +4569,48 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4610,13 +4634,13 @@
         <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4634,33 +4658,33 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4668,7 +4692,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>81</v>
@@ -4680,16 +4704,16 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4716,13 +4740,13 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4740,10 +4764,10 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4752,32 +4776,32 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4789,17 +4813,15 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
@@ -4836,31 +4858,31 @@
         <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4869,23 +4891,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4894,18 +4916,20 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4942,31 +4966,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4975,12 +4999,12 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5000,16 +5024,16 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5060,7 +5084,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5072,7 +5096,7 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5081,23 +5105,23 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5109,17 +5133,15 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5156,31 +5178,31 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5189,16 +5211,16 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5214,23 +5236,21 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5266,19 +5286,19 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5290,7 +5310,7 @@
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5299,12 +5319,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5315,7 +5335,7 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5324,19 +5344,23 @@
         <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5384,19 +5408,19 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5405,23 +5429,23 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5433,17 +5457,15 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5480,31 +5502,31 @@
         <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -5513,23 +5535,23 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5538,23 +5560,21 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5563,7 +5583,7 @@
         <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>73</v>
@@ -5590,31 +5610,31 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5623,12 +5643,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>244</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5651,18 +5671,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5710,7 +5732,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5731,12 +5753,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5759,18 +5781,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>73</v>
       </c>
@@ -5818,7 +5840,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5839,12 +5861,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5867,17 +5889,17 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5926,7 +5948,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5947,12 +5969,12 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5975,19 +5997,17 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6036,7 +6056,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6057,12 +6077,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6085,19 +6105,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6146,7 +6166,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6167,12 +6187,12 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6195,16 +6215,20 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6252,7 +6276,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6273,12 +6297,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>125</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6286,10 +6310,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -6301,13 +6325,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6358,33 +6382,33 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6392,10 +6416,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6404,16 +6428,16 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6464,44 +6488,44 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6513,17 +6537,15 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6572,19 +6594,19 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6593,16 +6615,16 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6615,26 +6637,24 @@
         <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6682,7 +6702,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6694,7 +6714,7 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -6703,44 +6723,48 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6776,47 +6800,47 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6837,13 +6861,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6882,19 +6906,17 @@
         <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6909,7 +6931,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6920,9 +6942,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6940,16 +6964,16 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7000,7 +7024,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7012,32 +7036,32 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -7049,17 +7073,15 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7096,31 +7118,31 @@
         <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7129,23 +7151,23 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -7154,18 +7176,20 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7202,31 +7226,31 @@
         <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -7235,12 +7259,12 @@
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7260,16 +7284,16 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7320,7 +7344,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7332,7 +7356,7 @@
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7341,23 +7365,23 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7369,17 +7393,15 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -7416,31 +7438,31 @@
         <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7449,23 +7471,23 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7474,23 +7496,21 @@
         <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7526,31 +7546,31 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -7559,12 +7579,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7581,30 +7601,30 @@
         <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7624,11 +7644,13 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -7646,7 +7668,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7667,12 +7689,12 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7689,28 +7711,30 @@
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7730,13 +7754,11 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7754,7 +7776,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7775,12 +7797,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7788,7 +7810,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>81</v>
@@ -7803,17 +7825,17 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7823,7 +7845,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7862,7 +7884,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7871,7 +7893,7 @@
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7883,12 +7905,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7896,7 +7918,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>81</v>
@@ -7911,19 +7933,17 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7933,7 +7953,7 @@
         <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7972,7 +7992,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7981,7 +8001,7 @@
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>93</v>
@@ -7993,12 +8013,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8021,16 +8041,20 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -8078,7 +8102,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8099,12 +8123,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8124,16 +8148,16 @@
         <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8184,7 +8208,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8196,7 +8220,7 @@
         <v>73</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>73</v>
@@ -8205,23 +8229,23 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -8233,17 +8257,15 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8280,31 +8302,31 @@
         <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>73</v>
@@ -8313,23 +8335,23 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8338,23 +8360,21 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8390,31 +8410,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8423,12 +8443,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8445,30 +8465,30 @@
         <v>73</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>73</v>
       </c>
@@ -8488,11 +8508,13 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
@@ -8510,7 +8532,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8531,12 +8553,12 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8547,34 +8569,36 @@
         <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8598,7 +8622,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8616,7 +8640,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8637,12 +8661,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8650,7 +8674,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>81</v>
@@ -8665,17 +8689,17 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8700,13 +8724,11 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -8724,7 +8746,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8733,7 +8755,7 @@
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8745,12 +8767,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8758,7 +8780,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>81</v>
@@ -8773,19 +8795,17 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8834,7 +8854,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8843,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>93</v>
@@ -8855,12 +8875,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8883,16 +8903,20 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>73</v>
       </c>
@@ -8940,7 +8964,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8955,18 +8979,18 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>73</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8989,13 +9013,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9034,17 +9058,19 @@
         <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB68" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9059,7 +9085,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
@@ -9070,11 +9096,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B69" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9095,13 +9119,13 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>367</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9140,19 +9164,17 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9167,7 +9189,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
@@ -9178,9 +9200,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9198,16 +9222,16 @@
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9258,7 +9282,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9270,32 +9294,32 @@
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -9307,17 +9331,15 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9354,31 +9376,31 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9387,23 +9409,23 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9412,18 +9434,20 @@
         <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -9460,31 +9484,31 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9493,12 +9517,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9518,16 +9542,16 @@
         <v>73</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9578,7 +9602,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9590,7 +9614,7 @@
         <v>73</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
@@ -9599,23 +9623,23 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9627,17 +9651,15 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -9674,31 +9696,31 @@
         <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -9707,23 +9729,23 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -9732,23 +9754,21 @@
         <v>73</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>73</v>
       </c>
@@ -9784,31 +9804,31 @@
         <v>73</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -9817,12 +9837,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9839,30 +9859,30 @@
         <v>73</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P76" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9882,11 +9902,13 @@
         <v>73</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X76" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y76" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>73</v>
@@ -9904,7 +9926,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9925,12 +9947,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9947,28 +9969,30 @@
         <v>73</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q77" t="s" s="2">
         <v>73</v>
       </c>
@@ -9988,13 +10012,11 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10012,7 +10034,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10033,12 +10055,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10046,7 +10068,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>81</v>
@@ -10061,17 +10083,17 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10081,7 +10103,7 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>73</v>
@@ -10120,7 +10142,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10129,7 +10151,7 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10141,12 +10163,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10154,7 +10176,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>81</v>
@@ -10169,19 +10191,17 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10191,7 +10211,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -10230,7 +10250,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10239,7 +10259,7 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>93</v>
@@ -10251,12 +10271,12 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10279,16 +10299,20 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>73</v>
       </c>
@@ -10336,7 +10360,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10357,12 +10381,12 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10382,16 +10406,16 @@
         <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10442,7 +10466,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10454,7 +10478,7 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>73</v>
@@ -10463,23 +10487,23 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -10491,17 +10515,15 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10538,31 +10560,31 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10571,23 +10593,23 @@
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -10596,23 +10618,21 @@
         <v>73</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10648,31 +10668,31 @@
         <v>73</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>73</v>
@@ -10681,12 +10701,12 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10703,30 +10723,30 @@
         <v>73</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N84" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P84" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>73</v>
       </c>
@@ -10746,11 +10766,13 @@
         <v>73</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X84" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y84" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>73</v>
@@ -10768,7 +10790,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10789,12 +10811,12 @@
         <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10805,34 +10827,36 @@
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>73</v>
       </c>
@@ -10852,13 +10876,11 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10876,7 +10898,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10897,12 +10919,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10910,7 +10932,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>81</v>
@@ -10925,17 +10947,17 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10945,7 +10967,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -10984,7 +11006,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -10993,7 +11015,7 @@
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11005,12 +11027,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11018,7 +11040,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>81</v>
@@ -11033,19 +11055,17 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11055,7 +11075,7 @@
         <v>73</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>73</v>
@@ -11094,7 +11114,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11103,7 +11123,7 @@
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>93</v>
@@ -11115,12 +11135,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11143,16 +11163,20 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
       </c>
@@ -11200,7 +11224,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11215,18 +11239,18 @@
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>73</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11249,13 +11273,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11306,7 +11330,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11321,7 +11345,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>73</v>
@@ -11343,7 +11367,7 @@
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>73</v>
@@ -11388,13 +11412,13 @@
         <v>73</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>73</v>
@@ -11418,7 +11442,7 @@
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>73</v>
@@ -11427,7 +11451,7 @@
         <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>398</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>73</v>
@@ -11438,7 +11462,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11449,7 +11473,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>73</v>
@@ -11461,13 +11485,13 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11518,22 +11542,22 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>73</v>
@@ -11544,7 +11568,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11555,7 +11579,7 @@
         <v>74</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>73</v>
@@ -11564,16 +11588,16 @@
         <v>73</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>182</v>
+        <v>401</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>183</v>
+        <v>402</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11600,13 +11624,13 @@
         <v>73</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
@@ -11624,37 +11648,37 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>184</v>
+        <v>400</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>73</v>
+        <v>405</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11670,20 +11694,18 @@
         <v>73</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>73</v>
@@ -11732,7 +11754,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>187</v>
+        <v>406</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -11744,57 +11766,53 @@
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>73</v>
+        <v>409</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>73</v>
       </c>
@@ -11842,19 +11860,19 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>73</v>
@@ -11863,23 +11881,23 @@
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>73</v>
@@ -11888,18 +11906,20 @@
         <v>73</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>73</v>
@@ -11924,13 +11944,13 @@
         <v>73</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>73</v>
@@ -11948,65 +11968,69 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>73</v>
       </c>
@@ -12054,19 +12078,19 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
@@ -12075,23 +12099,23 @@
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12100,20 +12124,18 @@
         <v>73</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>73</v>
@@ -12138,57 +12160,57 @@
         <v>73</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>187</v>
+        <v>413</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12208,16 +12230,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12268,7 +12290,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12280,7 +12302,7 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
@@ -12289,23 +12311,23 @@
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12317,15 +12339,17 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12362,31 +12386,31 @@
         <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12395,23 +12419,23 @@
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>73</v>
@@ -12420,20 +12444,18 @@
         <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
@@ -12470,31 +12492,31 @@
         <v>73</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12503,12 +12525,12 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12519,7 +12541,7 @@
         <v>74</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>73</v>
@@ -12528,23 +12550,19 @@
         <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12592,19 +12610,19 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>73</v>
@@ -12613,23 +12631,23 @@
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12641,15 +12659,17 @@
         <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>73</v>
@@ -12686,31 +12706,31 @@
         <v>73</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
@@ -12719,16 +12739,16 @@
         <v>73</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12744,21 +12764,23 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>73</v>
       </c>
@@ -12794,19 +12816,19 @@
         <v>73</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -12818,7 +12840,7 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>73</v>
@@ -12827,12 +12849,12 @@
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12852,23 +12874,19 @@
         <v>73</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
       </c>
@@ -12877,7 +12895,7 @@
         <v>73</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>73</v>
@@ -12916,7 +12934,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12928,7 +12946,7 @@
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -12937,23 +12955,23 @@
         <v>73</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>244</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>73</v>
@@ -12962,19 +12980,19 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13012,31 +13030,31 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13045,12 +13063,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>250</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13073,17 +13091,19 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N106" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
@@ -13093,7 +13113,7 @@
         <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>73</v>
@@ -13132,7 +13152,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13153,12 +13173,12 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13181,18 +13201,18 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>73</v>
       </c>
@@ -13240,7 +13260,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13261,12 +13281,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13289,19 +13309,17 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13350,7 +13368,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13371,12 +13389,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13399,19 +13417,17 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13460,7 +13476,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13481,12 +13497,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13509,16 +13525,20 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13566,7 +13586,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13587,12 +13607,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>125</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13600,7 +13620,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>81</v>
@@ -13615,16 +13635,20 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13660,20 +13684,22 @@
         <v>73</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -13685,22 +13711,20 @@
         <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>73</v>
       </c>
@@ -13721,13 +13745,13 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>425</v>
+        <v>281</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>426</v>
+        <v>282</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13778,10 +13802,10 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>424</v>
+        <v>283</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -13793,18 +13817,18 @@
         <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13812,7 +13836,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>81</v>
@@ -13824,16 +13848,16 @@
         <v>73</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>182</v>
+        <v>433</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>183</v>
+        <v>434</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13872,22 +13896,20 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -13896,32 +13918,34 @@
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B114" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="C114" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>73</v>
@@ -13930,20 +13954,18 @@
         <v>73</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -13980,45 +14002,45 @@
         <v>73</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>187</v>
+        <v>431</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14038,16 +14060,16 @@
         <v>73</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14098,7 +14120,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14110,7 +14132,7 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>73</v>
@@ -14119,23 +14141,23 @@
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14147,15 +14169,17 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>73</v>
@@ -14192,31 +14216,31 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
@@ -14225,23 +14249,23 @@
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14250,20 +14274,18 @@
         <v>73</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14300,31 +14322,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14333,12 +14355,12 @@
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14358,23 +14380,19 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14422,7 +14440,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14434,7 +14452,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14443,52 +14461,50 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P119" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14508,41 +14524,43 @@
         <v>73</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X119" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y119" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14551,12 +14569,12 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>323</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14579,17 +14597,19 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N120" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14638,7 +14658,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14659,12 +14679,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14672,7 +14692,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>81</v>
@@ -14681,33 +14701,35 @@
         <v>73</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -14722,13 +14744,11 @@
         <v>73</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X121" s="2"/>
       <c r="Y121" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>73</v>
@@ -14746,7 +14766,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -14755,7 +14775,7 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14767,12 +14787,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14795,19 +14815,17 @@
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14856,7 +14874,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -14877,12 +14895,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14890,7 +14908,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>81</v>
@@ -14905,16 +14923,18 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -14923,7 +14943,7 @@
         <v>73</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>73</v>
@@ -14962,7 +14982,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -14971,7 +14991,7 @@
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>93</v>
@@ -14983,12 +15003,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15008,19 +15028,23 @@
         <v>73</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15068,7 +15092,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15080,7 +15104,7 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -15089,23 +15113,23 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>143</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>73</v>
@@ -15114,20 +15138,18 @@
         <v>73</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15164,31 +15186,31 @@
         <v>73</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="AC125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15197,12 +15219,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15222,23 +15244,19 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>73</v>
       </c>
@@ -15286,7 +15304,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15298,7 +15316,7 @@
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -15307,52 +15325,50 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>315</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P127" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15372,41 +15388,43 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X127" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y127" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>73</v>
@@ -15415,12 +15433,12 @@
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>323</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15443,17 +15461,19 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N128" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15478,11 +15498,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X128" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y128" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15500,7 +15522,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15521,12 +15543,12 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15534,37 +15556,39 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15584,13 +15608,11 @@
         <v>73</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -15608,7 +15630,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15617,7 +15639,7 @@
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15629,12 +15651,12 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15657,19 +15679,17 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15694,13 +15714,11 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X130" s="2"/>
       <c r="Y130" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>
@@ -15718,7 +15736,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -15739,12 +15757,12 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15752,7 +15770,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>81</v>
@@ -15767,16 +15785,18 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>448</v>
+        <v>334</v>
       </c>
       <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -15824,7 +15844,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>447</v>
+        <v>337</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -15833,24 +15853,24 @@
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>449</v>
+        <v>73</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15861,7 +15881,7 @@
         <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
@@ -15873,16 +15893,20 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -15906,13 +15930,13 @@
         <v>73</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>73</v>
@@ -15930,13 +15954,13 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
@@ -15945,12 +15969,224 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLIngredient</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLIngredient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -274,7 +274,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -364,7 +364,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -387,13 +387,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -436,7 +440,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -458,9 +462,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Ingredient.status</t>
   </si>
   <si>
@@ -479,13 +480,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -544,15 +545,6 @@
     <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
   </si>
   <si>
-    <t>Ingredient.group</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
-  </si>
-  <si>
     <t>Ingredient.allergenicIndicator</t>
   </si>
   <si>
@@ -585,6 +577,10 @@
     <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>Ingredient.manufacturer.id</t>
   </si>
   <si>
@@ -639,7 +635,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.3.0</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
@@ -772,7 +768,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -924,7 +920,7 @@
   </si>
   <si>
     <t>Ratio
-RatioRangeCodeableConceptQuantity</t>
+RatioRange</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation</t>
@@ -1009,7 +1005,7 @@
     <t>Ingredient.substance.strength.presentation[x].numerator.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -1021,7 +1017,7 @@
     <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.3.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1097,10 +1093,6 @@
     <t>Ingredient.substance.strength.presentation[x].denominator</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
     <t>Denominator value</t>
   </si>
   <si>
@@ -1125,13 +1117,10 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.comparator</t>
   </si>
   <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
@@ -1233,15 +1222,6 @@
     <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio.</t>
   </si>
   <si>
-    <t>Ingredient.substance.strength.basis</t>
-  </si>
-  <si>
-    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt)</t>
-  </si>
-  <si>
-    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
-  </si>
-  <si>
     <t>Ingredient.substance.strength.measurementPoint</t>
   </si>
   <si>
@@ -1348,10 +1328,6 @@
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.strength[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-RatioRangeQuantity</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance</t>
@@ -1729,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL134"/>
+  <dimension ref="A1:AL132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1748,7 +1724,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="129.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1762,7 +1738,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2634,7 +2610,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2643,16 +2619,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2671,16 +2647,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2730,7 +2706,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2742,7 +2718,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2751,16 +2727,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2776,22 +2752,22 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2840,7 +2816,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2852,7 +2828,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2861,12 +2837,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2889,13 +2865,13 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2946,7 +2922,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2961,10 +2937,10 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -3069,7 +3045,7 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -3175,7 +3151,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -3387,7 +3363,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>73</v>
@@ -3421,20 +3397,22 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Q16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3493,7 +3471,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
@@ -3504,7 +3482,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3515,7 +3493,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3527,22 +3505,20 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P17" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3586,22 +3562,22 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
@@ -3612,7 +3588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3623,7 +3599,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3632,16 +3608,16 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3692,44 +3668,44 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3741,15 +3717,17 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3798,19 +3776,19 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3819,16 +3797,16 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3841,24 +3819,26 @@
         <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3906,7 +3886,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3918,7 +3898,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3927,48 +3907,44 @@
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3992,13 +3968,13 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -4016,33 +3992,33 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4050,7 +4026,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
@@ -4065,13 +4041,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4098,34 +4074,34 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4137,7 +4113,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4148,7 +4124,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4171,13 +4147,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4228,7 +4204,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>81</v>
@@ -4240,10 +4216,10 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -4254,7 +4230,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4262,7 +4238,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
@@ -4274,16 +4250,16 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4334,10 +4310,10 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4346,32 +4322,32 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -4383,15 +4359,17 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4440,19 +4418,19 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4461,16 +4439,16 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4483,24 +4461,26 @@
         <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4548,7 +4528,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4560,7 +4540,7 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4569,48 +4549,44 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4634,13 +4610,13 @@
         <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4658,33 +4634,33 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4692,7 +4668,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>81</v>
@@ -4704,16 +4680,16 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4740,13 +4716,13 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4764,10 +4740,10 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4776,32 +4752,32 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>73</v>
@@ -4813,15 +4789,17 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
@@ -4858,31 +4836,31 @@
         <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4891,23 +4869,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4916,20 +4894,18 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4966,31 +4942,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4999,12 +4975,12 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5024,16 +5000,16 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5084,7 +5060,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5096,7 +5072,7 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5105,23 +5081,23 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5133,15 +5109,17 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5178,31 +5156,31 @@
         <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -5211,16 +5189,16 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5236,21 +5214,23 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5286,19 +5266,19 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5310,7 +5290,7 @@
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5319,12 +5299,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5335,7 +5315,7 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5344,23 +5324,19 @@
         <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5408,19 +5384,19 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5429,23 +5405,23 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5457,15 +5433,17 @@
         <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5502,31 +5480,31 @@
         <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>73</v>
@@ -5535,23 +5513,23 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5560,21 +5538,23 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5583,7 +5563,7 @@
         <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>73</v>
@@ -5610,31 +5590,31 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5643,12 +5623,12 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>142</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5671,20 +5651,18 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5693,7 +5671,7 @@
         <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -5732,7 +5710,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5753,12 +5731,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5781,18 +5759,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
       </c>
@@ -5840,7 +5818,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5861,12 +5839,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5889,17 +5867,17 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5948,7 +5926,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5969,12 +5947,12 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5997,17 +5975,19 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6056,7 +6036,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6077,12 +6057,12 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6105,19 +6085,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6166,7 +6146,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6187,12 +6167,12 @@
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6215,20 +6195,16 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6276,7 +6252,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6297,12 +6273,12 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6310,10 +6286,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -6325,13 +6301,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6382,33 +6358,33 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6416,10 +6392,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6428,16 +6404,16 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6488,44 +6464,44 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6537,15 +6513,17 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6594,19 +6572,19 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6615,16 +6593,16 @@
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6637,24 +6615,26 @@
         <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6702,7 +6682,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6714,7 +6694,7 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -6723,48 +6703,44 @@
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6800,47 +6776,47 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6861,13 +6837,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6906,17 +6882,19 @@
         <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6931,7 +6909,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6942,11 +6920,9 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6964,16 +6940,16 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7024,7 +7000,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7036,32 +7012,32 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -7073,15 +7049,17 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7118,31 +7096,31 @@
         <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7151,23 +7129,23 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -7176,20 +7154,18 @@
         <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7226,31 +7202,31 @@
         <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -7259,12 +7235,12 @@
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7284,16 +7260,16 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7344,7 +7320,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7356,7 +7332,7 @@
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7365,23 +7341,23 @@
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7393,15 +7369,17 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -7438,31 +7416,31 @@
         <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7471,23 +7449,23 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7496,21 +7474,23 @@
         <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7546,31 +7526,31 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -7579,12 +7559,12 @@
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7601,30 +7581,30 @@
         <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7644,13 +7624,11 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
@@ -7668,7 +7646,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7689,12 +7667,12 @@
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7711,30 +7689,28 @@
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7754,11 +7730,13 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7776,7 +7754,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7797,12 +7775,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7810,7 +7788,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>81</v>
@@ -7825,17 +7803,17 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7845,7 +7823,7 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>73</v>
@@ -7884,7 +7862,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7893,7 +7871,7 @@
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7905,12 +7883,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7918,7 +7896,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>81</v>
@@ -7933,17 +7911,19 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7953,7 +7933,7 @@
         <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7992,7 +7972,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8001,7 +7981,7 @@
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>93</v>
@@ -8013,12 +7993,12 @@
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8041,20 +8021,16 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -8102,7 +8078,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8123,12 +8099,12 @@
         <v>73</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8148,16 +8124,16 @@
         <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8208,7 +8184,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8220,7 +8196,7 @@
         <v>73</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>73</v>
@@ -8229,23 +8205,23 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -8257,15 +8233,17 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8302,31 +8280,31 @@
         <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>73</v>
@@ -8335,23 +8313,23 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8360,21 +8338,23 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8410,31 +8390,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8443,12 +8423,12 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8465,30 +8445,30 @@
         <v>73</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>73</v>
       </c>
@@ -8508,13 +8488,11 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
@@ -8532,7 +8510,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8553,12 +8531,12 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8569,36 +8547,34 @@
         <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P64" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8622,7 +8598,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8640,7 +8616,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8661,12 +8637,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8674,7 +8650,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>81</v>
@@ -8689,17 +8665,17 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8724,11 +8700,13 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -8746,7 +8724,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8755,7 +8733,7 @@
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8767,12 +8745,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8780,7 +8758,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>81</v>
@@ -8795,17 +8773,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8854,7 +8834,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8863,7 +8843,7 @@
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>93</v>
@@ -8875,12 +8855,12 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8903,20 +8883,16 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>73</v>
       </c>
@@ -8964,7 +8940,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8979,18 +8955,18 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9013,13 +8989,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9058,19 +9034,17 @@
         <v>73</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9085,7 +9059,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
@@ -9096,9 +9070,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9119,13 +9095,13 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>367</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9164,17 +9140,19 @@
         <v>73</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9189,7 +9167,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
@@ -9200,11 +9178,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9222,16 +9198,16 @@
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9282,7 +9258,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>366</v>
+        <v>184</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9294,32 +9270,32 @@
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
@@ -9331,15 +9307,17 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>73</v>
@@ -9376,31 +9354,31 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>73</v>
@@ -9409,23 +9387,23 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9434,20 +9412,18 @@
         <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -9484,31 +9460,31 @@
         <v>73</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
@@ -9517,12 +9493,12 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9542,16 +9518,16 @@
         <v>73</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9602,7 +9578,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -9614,7 +9590,7 @@
         <v>73</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
@@ -9623,23 +9599,23 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9651,15 +9627,17 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -9696,31 +9674,31 @@
         <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -9729,23 +9707,23 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -9754,21 +9732,23 @@
         <v>73</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>73</v>
       </c>
@@ -9804,31 +9784,31 @@
         <v>73</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
@@ -9837,12 +9817,12 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9859,30 +9839,30 @@
         <v>73</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9902,13 +9882,11 @@
         <v>73</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>73</v>
@@ -9926,7 +9904,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9947,12 +9925,12 @@
         <v>73</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9969,30 +9947,28 @@
         <v>73</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P77" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>73</v>
       </c>
@@ -10012,11 +9988,13 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -10034,7 +10012,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10055,12 +10033,12 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10068,7 +10046,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>81</v>
@@ -10083,17 +10061,17 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10103,7 +10081,7 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>73</v>
@@ -10142,7 +10120,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10151,7 +10129,7 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10163,12 +10141,12 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10176,7 +10154,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>81</v>
@@ -10191,17 +10169,19 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10211,7 +10191,7 @@
         <v>73</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>73</v>
@@ -10250,7 +10230,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10259,7 +10239,7 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>93</v>
@@ -10271,12 +10251,12 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10299,20 +10279,16 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>73</v>
       </c>
@@ -10360,7 +10336,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10381,12 +10357,12 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10406,16 +10382,16 @@
         <v>73</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>348</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10466,7 +10442,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10478,7 +10454,7 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>73</v>
@@ -10487,23 +10463,23 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -10515,15 +10491,17 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -10560,31 +10538,31 @@
         <v>73</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
@@ -10593,23 +10571,23 @@
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -10618,21 +10596,23 @@
         <v>73</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10668,31 +10648,31 @@
         <v>73</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>73</v>
@@ -10701,12 +10681,12 @@
         <v>73</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10723,30 +10703,30 @@
         <v>73</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>73</v>
       </c>
@@ -10766,13 +10746,11 @@
         <v>73</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>73</v>
@@ -10790,7 +10768,7 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -10811,12 +10789,12 @@
         <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10827,36 +10805,34 @@
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P85" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>73</v>
       </c>
@@ -10876,11 +10852,13 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y85" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>73</v>
@@ -10898,7 +10876,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10919,12 +10897,12 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10932,7 +10910,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>81</v>
@@ -10947,17 +10925,17 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10967,7 +10945,7 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -11006,7 +10984,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11015,7 +10993,7 @@
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11027,12 +11005,12 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11040,7 +11018,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>81</v>
@@ -11055,17 +11033,19 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N87" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11075,7 +11055,7 @@
         <v>73</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>73</v>
@@ -11114,7 +11094,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11123,7 +11103,7 @@
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>93</v>
@@ -11135,12 +11115,12 @@
         <v>73</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11163,20 +11143,16 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>73</v>
       </c>
@@ -11224,7 +11200,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11239,18 +11215,18 @@
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11273,13 +11249,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11330,7 +11306,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11345,7 +11321,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>142</v>
+        <v>392</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>73</v>
@@ -11367,7 +11343,7 @@
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>73</v>
@@ -11412,13 +11388,13 @@
         <v>73</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>73</v>
@@ -11442,7 +11418,7 @@
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>73</v>
@@ -11451,7 +11427,7 @@
         <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>142</v>
+        <v>398</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>73</v>
@@ -11462,7 +11438,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11473,7 +11449,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>73</v>
@@ -11485,13 +11461,13 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11542,22 +11518,22 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>73</v>
@@ -11568,7 +11544,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11579,7 +11555,7 @@
         <v>74</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>73</v>
@@ -11588,16 +11564,16 @@
         <v>73</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>401</v>
+        <v>182</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11624,13 +11600,13 @@
         <v>73</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>73</v>
@@ -11648,37 +11624,37 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>400</v>
+        <v>184</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11694,18 +11670,20 @@
         <v>73</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>407</v>
+        <v>129</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>73</v>
@@ -11754,7 +11732,7 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>406</v>
+        <v>187</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -11766,53 +11744,57 @@
         <v>73</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>409</v>
+        <v>73</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>73</v>
       </c>
@@ -11860,19 +11842,19 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>73</v>
@@ -11881,23 +11863,23 @@
         <v>73</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>73</v>
@@ -11906,20 +11888,18 @@
         <v>73</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>73</v>
@@ -11944,13 +11924,13 @@
         <v>73</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>73</v>
@@ -11968,69 +11948,65 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>73</v>
+        <v>408</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>73</v>
       </c>
@@ -12078,19 +12054,19 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
@@ -12099,23 +12075,23 @@
         <v>73</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>73</v>
@@ -12124,18 +12100,20 @@
         <v>73</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>73</v>
@@ -12160,57 +12138,57 @@
         <v>73</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12230,16 +12208,16 @@
         <v>73</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12290,7 +12268,7 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -12302,7 +12280,7 @@
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
@@ -12311,23 +12289,23 @@
         <v>73</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>73</v>
@@ -12339,17 +12317,15 @@
         <v>73</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>73</v>
@@ -12386,31 +12362,31 @@
         <v>73</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>73</v>
@@ -12419,23 +12395,23 @@
         <v>73</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>73</v>
@@ -12444,18 +12420,20 @@
         <v>73</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>73</v>
@@ -12492,31 +12470,31 @@
         <v>73</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>73</v>
@@ -12525,12 +12503,12 @@
         <v>73</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12541,7 +12519,7 @@
         <v>74</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>73</v>
@@ -12550,19 +12528,23 @@
         <v>73</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>73</v>
       </c>
@@ -12610,19 +12592,19 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>73</v>
@@ -12631,23 +12613,23 @@
         <v>73</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>
@@ -12659,17 +12641,15 @@
         <v>73</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>73</v>
@@ -12706,31 +12686,31 @@
         <v>73</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
@@ -12739,16 +12719,16 @@
         <v>73</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12764,23 +12744,21 @@
         <v>73</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>73</v>
       </c>
@@ -12816,19 +12794,19 @@
         <v>73</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -12840,7 +12818,7 @@
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>73</v>
@@ -12849,12 +12827,12 @@
         <v>73</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12874,19 +12852,23 @@
         <v>73</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>73</v>
       </c>
@@ -12895,7 +12877,7 @@
         <v>73</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>73</v>
@@ -12934,7 +12916,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12946,7 +12928,7 @@
         <v>73</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>73</v>
@@ -12955,23 +12937,23 @@
         <v>73</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>142</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>73</v>
@@ -12980,19 +12962,19 @@
         <v>73</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13030,31 +13012,31 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
@@ -13063,12 +13045,12 @@
         <v>73</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>142</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13091,19 +13073,17 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>73</v>
@@ -13113,7 +13093,7 @@
         <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>73</v>
@@ -13152,7 +13132,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13173,12 +13153,12 @@
         <v>73</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13201,18 +13181,18 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>73</v>
       </c>
@@ -13260,7 +13240,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13281,12 +13261,12 @@
         <v>73</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13309,17 +13289,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>73</v>
@@ -13368,7 +13350,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13389,12 +13371,12 @@
         <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13417,17 +13399,19 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N109" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13476,7 +13460,7 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -13497,12 +13481,12 @@
         <v>73</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13525,20 +13509,16 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13586,7 +13566,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13607,12 +13587,12 @@
         <v>73</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>271</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13620,7 +13600,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>81</v>
@@ -13635,20 +13615,16 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>273</v>
+        <v>425</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13684,22 +13660,20 @@
         <v>73</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>277</v>
+        <v>424</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -13711,20 +13685,22 @@
         <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="C112" t="s" s="2">
         <v>73</v>
       </c>
@@ -13745,13 +13721,13 @@
         <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>281</v>
+        <v>425</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>282</v>
+        <v>426</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13802,10 +13778,10 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>283</v>
+        <v>424</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -13817,18 +13793,18 @@
         <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13836,7 +13812,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>81</v>
@@ -13848,16 +13824,16 @@
         <v>73</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>432</v>
+        <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>433</v>
+        <v>182</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>434</v>
+        <v>183</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13896,20 +13872,22 @@
         <v>73</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AB113" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>431</v>
+        <v>184</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -13918,34 +13896,32 @@
         <v>73</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>435</v>
+        <v>73</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>73</v>
@@ -13954,18 +13930,20 @@
         <v>73</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>73</v>
@@ -14002,45 +13980,45 @@
         <v>73</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>431</v>
+        <v>187</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>435</v>
+        <v>73</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14060,16 +14038,16 @@
         <v>73</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14120,7 +14098,7 @@
         <v>73</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14132,7 +14110,7 @@
         <v>73</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>73</v>
@@ -14141,23 +14119,23 @@
         <v>73</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>73</v>
@@ -14169,17 +14147,15 @@
         <v>73</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>73</v>
@@ -14216,31 +14192,31 @@
         <v>73</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>73</v>
@@ -14249,23 +14225,23 @@
         <v>73</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>73</v>
@@ -14274,18 +14250,20 @@
         <v>73</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>73</v>
@@ -14322,31 +14300,31 @@
         <v>73</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>73</v>
@@ -14355,12 +14333,12 @@
         <v>73</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14380,19 +14358,23 @@
         <v>73</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>73</v>
       </c>
@@ -14440,7 +14422,7 @@
         <v>73</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -14452,7 +14434,7 @@
         <v>73</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>73</v>
@@ -14461,50 +14443,52 @@
         <v>73</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q119" t="s" s="2">
         <v>73</v>
       </c>
@@ -14524,43 +14508,41 @@
         <v>73</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X119" s="2"/>
       <c r="Y119" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>73</v>
@@ -14569,12 +14551,12 @@
         <v>73</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>142</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14597,19 +14579,17 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>73</v>
@@ -14658,7 +14638,7 @@
         <v>73</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14679,12 +14659,12 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14692,7 +14672,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>81</v>
@@ -14701,35 +14681,33 @@
         <v>73</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P121" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>73</v>
@@ -14744,11 +14722,13 @@
         <v>73</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X121" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y121" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>73</v>
@@ -14766,7 +14746,7 @@
         <v>73</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -14775,7 +14755,7 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14787,12 +14767,12 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14815,17 +14795,19 @@
         <v>82</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N122" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14874,7 +14856,7 @@
         <v>73</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -14895,12 +14877,12 @@
         <v>73</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14908,7 +14890,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>81</v>
@@ -14923,18 +14905,16 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>73</v>
       </c>
@@ -14943,7 +14923,7 @@
         <v>73</v>
       </c>
       <c r="R123" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>73</v>
@@ -14982,7 +14962,7 @@
         <v>73</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -14991,7 +14971,7 @@
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>93</v>
@@ -15003,12 +14983,12 @@
         <v>73</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15028,23 +15008,19 @@
         <v>73</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>73</v>
       </c>
@@ -15092,7 +15068,7 @@
         <v>73</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15104,7 +15080,7 @@
         <v>73</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>73</v>
@@ -15113,23 +15089,23 @@
         <v>73</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>346</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>73</v>
@@ -15138,18 +15114,20 @@
         <v>73</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>73</v>
@@ -15186,31 +15164,31 @@
         <v>73</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="AC125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>73</v>
@@ -15219,12 +15197,12 @@
         <v>73</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>352</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15244,19 +15222,23 @@
         <v>73</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>73</v>
       </c>
@@ -15304,7 +15286,7 @@
         <v>73</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -15316,7 +15298,7 @@
         <v>73</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>73</v>
@@ -15325,50 +15307,52 @@
         <v>73</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>142</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="Q127" t="s" s="2">
         <v>73</v>
       </c>
@@ -15388,43 +15372,41 @@
         <v>73</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X127" s="2"/>
       <c r="Y127" t="s" s="2">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>73</v>
@@ -15433,12 +15415,12 @@
         <v>73</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>142</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15461,19 +15443,17 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>73</v>
@@ -15498,13 +15478,11 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X128" s="2"/>
       <c r="Y128" t="s" s="2">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15522,7 +15500,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15543,12 +15521,12 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15556,39 +15534,37 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P129" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
         <v>73</v>
       </c>
@@ -15608,11 +15584,13 @@
         <v>73</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X129" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y129" t="s" s="2">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>73</v>
@@ -15630,7 +15608,7 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -15639,7 +15617,7 @@
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15651,12 +15629,12 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15679,17 +15657,19 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N130" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15714,11 +15694,13 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X130" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y130" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>
@@ -15736,7 +15718,7 @@
         <v>73</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -15757,12 +15739,12 @@
         <v>73</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15770,7 +15752,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>81</v>
@@ -15785,18 +15767,16 @@
         <v>82</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="M131" s="2"/>
-      <c r="N131" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>73</v>
       </c>
@@ -15844,7 +15824,7 @@
         <v>73</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>337</v>
+        <v>447</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -15853,24 +15833,24 @@
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>73</v>
+        <v>449</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15881,7 +15861,7 @@
         <v>74</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>73</v>
@@ -15893,20 +15873,16 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>73</v>
       </c>
@@ -15930,13 +15906,13 @@
         <v>73</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>73</v>
@@ -15954,13 +15930,13 @@
         <v>73</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
@@ -15969,224 +15945,12 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>73</v>
+        <v>451</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL134" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1038,9 +1038,6 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-measurement-vs</t>
-  </si>
-  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -1087,6 +1084,9 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/unit-of-measurement-vs</t>
+  </si>
+  <si>
     <t>Quantity.code</t>
   </si>
   <si>
@@ -1123,16 +1123,16 @@
     <t>Ingredient.substance.strength.presentation[x].denominator.unit</t>
   </si>
   <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
+  </si>
+  <si>
+    <t>Unit of measurement or unit of presentation</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.strength.presentation[x].denominator.code</t>
+  </si>
+  <si>
     <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.strength.presentation[x].denominator.system</t>
-  </si>
-  <si>
-    <t>Unit of measurement or unit of presentation</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.strength.presentation[x].denominator.code</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.textPresentation</t>
@@ -7733,29 +7733,31 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7776,12 +7778,12 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7807,14 +7809,14 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7824,55 +7826,55 @@
         <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>93</v>
@@ -7884,12 +7886,12 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7915,16 +7917,16 @@
         <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -7949,13 +7951,11 @@
         <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>73</v>
@@ -8595,11 +8595,13 @@
         <v>73</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -8617,7 +8619,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8638,12 +8640,12 @@
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8669,14 +8671,14 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -8725,16 +8727,16 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
@@ -8746,12 +8748,12 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8777,16 +8779,16 @@
         <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -8811,13 +8813,11 @@
         <v>73</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>73</v>
@@ -9989,29 +9989,31 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10032,7 +10034,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78">
@@ -10063,14 +10065,14 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>73</v>
@@ -10080,55 +10082,55 @@
         <v>73</v>
       </c>
       <c r="R78" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="S78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE78" t="s" s="2">
+      <c r="AF78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>93</v>
@@ -10140,7 +10142,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79">
@@ -10171,16 +10173,16 @@
         <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10205,13 +10207,11 @@
         <v>73</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>73</v>
@@ -10851,29 +10851,31 @@
         <v>73</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -10894,7 +10896,7 @@
         <v>73</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86">
@@ -10925,14 +10927,14 @@
         <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -10942,55 +10944,55 @@
         <v>73</v>
       </c>
       <c r="R86" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE86" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="S86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE86" t="s" s="2">
+      <c r="AF86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
@@ -11002,7 +11004,7 @@
         <v>73</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87">
@@ -11033,16 +11035,16 @@
         <v>101</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11067,13 +11069,11 @@
         <v>73</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X87" s="2"/>
       <c r="Y87" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>73</v>
@@ -14611,29 +14611,31 @@
         <v>73</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X120" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE120" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -14654,7 +14656,7 @@
         <v>73</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121">
@@ -14685,14 +14687,14 @@
         <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>73</v>
@@ -14702,55 +14704,55 @@
         <v>73</v>
       </c>
       <c r="R121" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE121" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="S121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE121" t="s" s="2">
+      <c r="AF121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH121" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>93</v>
@@ -14762,7 +14764,7 @@
         <v>73</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122">
@@ -14793,16 +14795,16 @@
         <v>101</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>73</v>
@@ -14827,13 +14829,11 @@
         <v>73</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>73</v>
@@ -15473,11 +15473,13 @@
         <v>73</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X128" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y128" t="s" s="2">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>73</v>
@@ -15495,7 +15497,7 @@
         <v>73</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -15516,7 +15518,7 @@
         <v>73</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129">
@@ -15547,14 +15549,14 @@
         <v>95</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>73</v>
@@ -15603,16 +15605,16 @@
         <v>73</v>
       </c>
       <c r="AE129" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH129" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>93</v>
@@ -15624,7 +15626,7 @@
         <v>73</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130">
@@ -15655,16 +15657,16 @@
         <v>101</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>73</v>
@@ -15689,13 +15691,11 @@
         <v>73</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X130" s="2"/>
       <c r="Y130" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1258,10 +1258,10 @@
     <t>Ingredient.substance.strength.referenceStrength</t>
   </si>
   <si>
-    <t>Strenth expressed in terms of a reference substance; concentration and presentation strength or reference strength type not distinguished.</t>
-  </si>
-  <si>
-    <t>EMA IG 5.5.3</t>
+    <t>Strenth expressed in terms of a reference substance; reference strength type not distinguished. According to EMA IG, all products need to have reference strentgh (repeating the strentgh, if needed)</t>
+  </si>
+  <si>
+    <t>EMA IG 5.5.3. According to EMA, this is a mandatory element for all products, which is not necessarily accepted by all NCAs, and it is ambivalent in ISO IDMP.</t>
   </si>
   <si>
     <t>Strength.Reference Strength</t>
@@ -1727,7 +1727,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="183.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-PPLIngredient.xlsx
+++ b/StructureDefinition-PPLIngredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
